--- a/Others/Expense NAT08.xlsx
+++ b/Others/Expense NAT08.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
@@ -14,12 +14,12 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -402,32 +402,14 @@
     <t>Fixed Cost</t>
   </si>
   <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>SIM Com</t>
-  </si>
-  <si>
-    <t>SWAP</t>
-  </si>
-  <si>
-    <t>Shere Partner</t>
-  </si>
-  <si>
-    <t>Expense</t>
-  </si>
-  <si>
-    <t>Income</t>
+    <t>Daily Cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1159,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1609,6 +1591,18 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1672,17 +1666,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1950,7 +1940,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="01"/>
@@ -2095,6 +2085,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2129,6 +2120,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2304,14 +2296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD65540"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="AQ6" sqref="AQ6:AQ28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="2" customWidth="1"/>
@@ -2359,7 +2351,7 @@
     <col min="49" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:56" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2401,7 @@
       <c r="AS1" s="145"/>
       <c r="AT1" s="145"/>
     </row>
-    <row r="2" spans="1:56" ht="9.75" hidden="1" customHeight="1">
+    <row r="2" spans="1:56" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="145"/>
       <c r="B2" s="145"/>
       <c r="C2" s="145"/>
@@ -2457,10 +2449,10 @@
       <c r="AS2" s="145"/>
       <c r="AT2" s="145"/>
     </row>
-    <row r="3" spans="1:56" s="146" customFormat="1" ht="18" customHeight="1"/>
-    <row r="4" spans="1:56" s="144" customFormat="1"/>
-    <row r="5" spans="1:56" s="147" customFormat="1"/>
-    <row r="6" spans="1:56" s="18" customFormat="1" ht="54.75" customHeight="1">
+    <row r="3" spans="1:56" s="146" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:56" s="144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:56" s="147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:56" s="18" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2600,7 +2592,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="15.75">
+    <row r="7" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -2776,7 +2768,7 @@
       <c r="BC7" s="32"/>
       <c r="BD7" s="32"/>
     </row>
-    <row r="8" spans="1:56" ht="15.75">
+    <row r="8" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>2</v>
       </c>
@@ -2954,7 +2946,7 @@
       <c r="BC8" s="32"/>
       <c r="BD8" s="32"/>
     </row>
-    <row r="9" spans="1:56" ht="15.75">
+    <row r="9" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>3</v>
       </c>
@@ -3132,7 +3124,7 @@
       <c r="BC9" s="32"/>
       <c r="BD9" s="32"/>
     </row>
-    <row r="10" spans="1:56" ht="15.75" customHeight="1">
+    <row r="10" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>4</v>
       </c>
@@ -3310,7 +3302,7 @@
       <c r="BC10" s="32"/>
       <c r="BD10" s="32"/>
     </row>
-    <row r="11" spans="1:56" ht="15.75">
+    <row r="11" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>5</v>
       </c>
@@ -3488,7 +3480,7 @@
       <c r="BC11" s="32"/>
       <c r="BD11" s="32"/>
     </row>
-    <row r="12" spans="1:56" ht="15.75">
+    <row r="12" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>6</v>
       </c>
@@ -3667,7 +3659,7 @@
       <c r="BC12" s="32"/>
       <c r="BD12" s="32"/>
     </row>
-    <row r="13" spans="1:56" ht="15.75">
+    <row r="13" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>7</v>
       </c>
@@ -3841,7 +3833,7 @@
       <c r="BC13" s="32"/>
       <c r="BD13" s="32"/>
     </row>
-    <row r="14" spans="1:56" ht="15.75">
+    <row r="14" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -4015,7 +4007,7 @@
       <c r="BC14" s="32"/>
       <c r="BD14" s="32"/>
     </row>
-    <row r="15" spans="1:56" ht="17.25">
+    <row r="15" spans="1:56" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>9</v>
       </c>
@@ -4189,7 +4181,7 @@
       <c r="BC15" s="32"/>
       <c r="BD15" s="32"/>
     </row>
-    <row r="16" spans="1:56" ht="18" customHeight="1">
+    <row r="16" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>10</v>
       </c>
@@ -4363,7 +4355,7 @@
       <c r="BC16" s="32"/>
       <c r="BD16" s="32"/>
     </row>
-    <row r="17" spans="1:56" ht="15.75">
+    <row r="17" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>11</v>
       </c>
@@ -4537,7 +4529,7 @@
       <c r="BC17" s="32"/>
       <c r="BD17" s="32"/>
     </row>
-    <row r="18" spans="1:56" ht="15.75">
+    <row r="18" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>12</v>
       </c>
@@ -4711,7 +4703,7 @@
       <c r="BC18" s="32"/>
       <c r="BD18" s="32"/>
     </row>
-    <row r="19" spans="1:56" ht="15.75">
+    <row r="19" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
         <v>13</v>
       </c>
@@ -4885,7 +4877,7 @@
       <c r="BC19" s="32"/>
       <c r="BD19" s="32"/>
     </row>
-    <row r="20" spans="1:56" ht="15.75">
+    <row r="20" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>14</v>
       </c>
@@ -5059,7 +5051,7 @@
       <c r="BC20" s="32"/>
       <c r="BD20" s="32"/>
     </row>
-    <row r="21" spans="1:56" ht="15.75">
+    <row r="21" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>15</v>
       </c>
@@ -5233,7 +5225,7 @@
       <c r="BC21" s="32"/>
       <c r="BD21" s="32"/>
     </row>
-    <row r="22" spans="1:56" ht="15.75">
+    <row r="22" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>16</v>
       </c>
@@ -5407,7 +5399,7 @@
       <c r="BC22" s="32"/>
       <c r="BD22" s="32"/>
     </row>
-    <row r="23" spans="1:56" ht="15.75">
+    <row r="23" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>17</v>
       </c>
@@ -5581,7 +5573,7 @@
       <c r="BC23" s="32"/>
       <c r="BD23" s="32"/>
     </row>
-    <row r="24" spans="1:56" ht="15.75">
+    <row r="24" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>18</v>
       </c>
@@ -5755,7 +5747,7 @@
       <c r="BC24" s="32"/>
       <c r="BD24" s="32"/>
     </row>
-    <row r="25" spans="1:56" ht="15.75">
+    <row r="25" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>19</v>
       </c>
@@ -5929,7 +5921,7 @@
       <c r="BC25" s="32"/>
       <c r="BD25" s="32"/>
     </row>
-    <row r="26" spans="1:56" ht="15.75">
+    <row r="26" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>70</v>
       </c>
@@ -6103,7 +6095,7 @@
       <c r="BC26" s="32"/>
       <c r="BD26" s="32"/>
     </row>
-    <row r="27" spans="1:56" ht="15.75">
+    <row r="27" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="60">
         <v>21</v>
       </c>
@@ -6277,7 +6269,7 @@
       <c r="BC27" s="32"/>
       <c r="BD27" s="32"/>
     </row>
-    <row r="28" spans="1:56" s="73" customFormat="1" ht="15.75">
+    <row r="28" spans="1:56" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="150" t="s">
         <v>73</v>
       </c>
@@ -6458,7 +6450,7 @@
       <c r="AU28" s="72"/>
       <c r="AV28" s="72"/>
     </row>
-    <row r="29" spans="1:56" s="32" customFormat="1">
+    <row r="29" spans="1:56" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="144"/>
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
@@ -6506,7 +6498,7 @@
       <c r="AS29" s="75"/>
       <c r="AT29" s="75"/>
     </row>
-    <row r="30" spans="1:56">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" s="77"/>
       <c r="B30" s="77"/>
       <c r="C30" s="75"/>
@@ -6563,7 +6555,7 @@
       <c r="BC30" s="32"/>
       <c r="BD30" s="32"/>
     </row>
-    <row r="31" spans="1:56" ht="18">
+    <row r="31" spans="1:56" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="44"/>
@@ -6596,7 +6588,7 @@
       <c r="AT31" s="83"/>
       <c r="AU31" s="84"/>
     </row>
-    <row r="32" spans="1:56" ht="15.75">
+    <row r="32" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
       <c r="C32" s="44"/>
@@ -6630,7 +6622,7 @@
       <c r="AU32" s="84"/>
       <c r="AV32" s="86"/>
     </row>
-    <row r="33" spans="1:47" ht="15.75">
+    <row r="33" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="44"/>
@@ -6655,7 +6647,7 @@
       <c r="AT33" s="84"/>
       <c r="AU33" s="32"/>
     </row>
-    <row r="34" spans="1:47" ht="15.75">
+    <row r="34" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="44"/>
@@ -6677,7 +6669,7 @@
       <c r="AS34" s="84"/>
       <c r="AT34" s="84"/>
     </row>
-    <row r="35" spans="1:47" ht="15.75">
+    <row r="35" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="44"/>
@@ -6699,7 +6691,7 @@
       <c r="AS35" s="84"/>
       <c r="AT35" s="84"/>
     </row>
-    <row r="36" spans="1:47" ht="15.75">
+    <row r="36" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="44"/>
@@ -6718,7 +6710,7 @@
       <c r="AS36" s="84"/>
       <c r="AT36" s="84"/>
     </row>
-    <row r="37" spans="1:47" ht="15.75">
+    <row r="37" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="91"/>
       <c r="B37" s="91"/>
       <c r="C37" s="44"/>
@@ -6736,7 +6728,7 @@
       <c r="AS37" s="84"/>
       <c r="AT37" s="84"/>
     </row>
-    <row r="38" spans="1:47" ht="15.75">
+    <row r="38" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="44"/>
@@ -6754,7 +6746,7 @@
       <c r="AS38" s="32"/>
       <c r="AT38" s="84"/>
     </row>
-    <row r="39" spans="1:47" ht="15.75">
+    <row r="39" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="44"/>
@@ -6773,7 +6765,7 @@
       <c r="AS39" s="84"/>
       <c r="AT39" s="32"/>
     </row>
-    <row r="40" spans="1:47">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="44"/>
@@ -6792,7 +6784,7 @@
       <c r="AS40" s="84"/>
       <c r="AT40" s="32"/>
     </row>
-    <row r="41" spans="1:47">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="44"/>
@@ -6811,7 +6803,7 @@
       <c r="AS41" s="84"/>
       <c r="AT41" s="32"/>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="44"/>
@@ -6830,7 +6822,7 @@
       <c r="AS42" s="84"/>
       <c r="AT42" s="32"/>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="44"/>
@@ -6842,7 +6834,7 @@
       <c r="AS43" s="32"/>
       <c r="AT43" s="32"/>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="44"/>
@@ -6854,7 +6846,7 @@
       <c r="AS44" s="32"/>
       <c r="AT44" s="84"/>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -6866,7 +6858,7 @@
       <c r="AS45" s="32"/>
       <c r="AT45" s="84"/>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
@@ -6878,7 +6870,7 @@
       <c r="AS46" s="32"/>
       <c r="AT46" s="32"/>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -6888,7 +6880,7 @@
       <c r="AS47" s="32"/>
       <c r="AT47" s="32"/>
     </row>
-    <row r="48" spans="1:47">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
@@ -6898,7 +6890,7 @@
       <c r="AS48" s="32"/>
       <c r="AT48" s="32"/>
     </row>
-    <row r="49" spans="1:46">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -6908,7 +6900,7 @@
       <c r="AS49" s="84"/>
       <c r="AT49" s="84"/>
     </row>
-    <row r="50" spans="1:46">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -6918,7 +6910,7 @@
       <c r="AS50" s="32"/>
       <c r="AT50" s="32"/>
     </row>
-    <row r="51" spans="1:46">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
@@ -6931,7 +6923,7 @@
       <c r="AS51" s="32"/>
       <c r="AT51" s="32"/>
     </row>
-    <row r="52" spans="1:46">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
@@ -6941,7 +6933,7 @@
       <c r="AS52" s="32"/>
       <c r="AT52" s="32"/>
     </row>
-    <row r="53" spans="1:46">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
@@ -6951,7 +6943,7 @@
       <c r="AS53" s="32"/>
       <c r="AT53" s="32"/>
     </row>
-    <row r="54" spans="1:46">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
@@ -6961,7 +6953,7 @@
       <c r="AS54" s="32"/>
       <c r="AT54" s="32"/>
     </row>
-    <row r="55" spans="1:46">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -6971,7 +6963,7 @@
       <c r="AS55" s="32"/>
       <c r="AT55" s="32"/>
     </row>
-    <row r="56" spans="1:46">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
@@ -6981,7 +6973,7 @@
       <c r="AS56" s="32"/>
       <c r="AT56" s="32"/>
     </row>
-    <row r="57" spans="1:46">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" s="32"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
@@ -6991,7 +6983,7 @@
       <c r="AS57" s="32"/>
       <c r="AT57" s="32"/>
     </row>
-    <row r="58" spans="1:46">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
@@ -7001,7 +6993,7 @@
       <c r="AS58" s="32"/>
       <c r="AT58" s="32"/>
     </row>
-    <row r="59" spans="1:46">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
@@ -7011,7 +7003,7 @@
       <c r="AS59" s="32"/>
       <c r="AT59" s="32"/>
     </row>
-    <row r="60" spans="1:46">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -7021,7 +7013,7 @@
       <c r="AS60" s="32"/>
       <c r="AT60" s="32"/>
     </row>
-    <row r="61" spans="1:46">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
@@ -7031,7 +7023,7 @@
       <c r="AS61" s="32"/>
       <c r="AT61" s="32"/>
     </row>
-    <row r="62" spans="1:46">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
@@ -7041,7 +7033,7 @@
       <c r="AS62" s="32"/>
       <c r="AT62" s="32"/>
     </row>
-    <row r="63" spans="1:46">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
@@ -7051,7 +7043,7 @@
       <c r="AS63" s="32"/>
       <c r="AT63" s="32"/>
     </row>
-    <row r="64" spans="1:46">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
@@ -7061,7 +7053,7 @@
       <c r="AS64" s="32"/>
       <c r="AT64" s="32"/>
     </row>
-    <row r="65" spans="3:46">
+    <row r="65" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
       <c r="E65" s="32"/>
@@ -7069,7 +7061,7 @@
       <c r="AS65" s="32"/>
       <c r="AT65" s="32"/>
     </row>
-    <row r="66" spans="3:46">
+    <row r="66" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C66" s="32"/>
       <c r="D66" s="32"/>
       <c r="E66" s="32"/>
@@ -7077,7 +7069,7 @@
       <c r="AS66" s="32"/>
       <c r="AT66" s="32"/>
     </row>
-    <row r="67" spans="3:46">
+    <row r="67" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C67" s="32"/>
       <c r="D67" s="32"/>
       <c r="E67" s="32"/>
@@ -7085,7 +7077,7 @@
       <c r="AS67" s="32"/>
       <c r="AT67" s="32"/>
     </row>
-    <row r="68" spans="3:46">
+    <row r="68" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C68" s="32"/>
       <c r="D68" s="32"/>
       <c r="E68" s="32"/>
@@ -7093,7 +7085,7 @@
       <c r="AS68" s="32"/>
       <c r="AT68" s="32"/>
     </row>
-    <row r="69" spans="3:46">
+    <row r="69" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C69" s="32"/>
       <c r="D69" s="32"/>
       <c r="E69" s="32"/>
@@ -7101,512 +7093,512 @@
       <c r="AS69" s="32"/>
       <c r="AT69" s="32"/>
     </row>
-    <row r="70" spans="3:46">
+    <row r="70" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C70" s="32"/>
       <c r="D70" s="32"/>
       <c r="E70" s="32"/>
     </row>
-    <row r="71" spans="3:46">
+    <row r="71" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C71" s="32"/>
       <c r="D71" s="32"/>
       <c r="E71" s="32"/>
     </row>
-    <row r="72" spans="3:46">
+    <row r="72" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C72" s="32"/>
       <c r="D72" s="32"/>
       <c r="E72" s="32"/>
     </row>
-    <row r="73" spans="3:46">
+    <row r="73" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C73" s="32"/>
       <c r="D73" s="32"/>
       <c r="E73" s="32"/>
     </row>
-    <row r="74" spans="3:46">
+    <row r="74" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C74" s="32"/>
       <c r="D74" s="32"/>
       <c r="E74" s="32"/>
     </row>
-    <row r="75" spans="3:46">
+    <row r="75" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C75" s="32"/>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
     </row>
-    <row r="76" spans="3:46">
+    <row r="76" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C76" s="32"/>
       <c r="D76" s="32"/>
       <c r="E76" s="32"/>
     </row>
-    <row r="77" spans="3:46">
+    <row r="77" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C77" s="32"/>
       <c r="D77" s="32"/>
       <c r="E77" s="32"/>
     </row>
-    <row r="78" spans="3:46">
+    <row r="78" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C78" s="32"/>
       <c r="D78" s="32"/>
       <c r="E78" s="32"/>
     </row>
-    <row r="79" spans="3:46">
+    <row r="79" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C79" s="32"/>
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
     </row>
-    <row r="80" spans="3:46">
+    <row r="80" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C80" s="32"/>
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
     </row>
-    <row r="81" spans="3:5">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" s="32"/>
       <c r="D81" s="32"/>
       <c r="E81" s="32"/>
     </row>
-    <row r="82" spans="3:5">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" s="32"/>
       <c r="D82" s="32"/>
       <c r="E82" s="32"/>
     </row>
-    <row r="83" spans="3:5">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" s="32"/>
       <c r="D83" s="32"/>
       <c r="E83" s="32"/>
     </row>
-    <row r="84" spans="3:5">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" s="32"/>
       <c r="D84" s="32"/>
       <c r="E84" s="32"/>
     </row>
-    <row r="85" spans="3:5">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" s="32"/>
       <c r="D85" s="32"/>
       <c r="E85" s="32"/>
     </row>
-    <row r="86" spans="3:5">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" s="32"/>
       <c r="D86" s="32"/>
       <c r="E86" s="32"/>
     </row>
-    <row r="87" spans="3:5">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" s="32"/>
       <c r="D87" s="32"/>
       <c r="E87" s="32"/>
     </row>
-    <row r="88" spans="3:5">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" s="32"/>
       <c r="D88" s="32"/>
       <c r="E88" s="32"/>
     </row>
-    <row r="89" spans="3:5">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
       <c r="E89" s="32"/>
     </row>
-    <row r="90" spans="3:5">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" s="32"/>
       <c r="D90" s="32"/>
       <c r="E90" s="32"/>
     </row>
-    <row r="91" spans="3:5">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
       <c r="E91" s="32"/>
     </row>
-    <row r="92" spans="3:5">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" s="32"/>
       <c r="D92" s="32"/>
       <c r="E92" s="32"/>
     </row>
-    <row r="93" spans="3:5">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" s="32"/>
       <c r="D93" s="32"/>
       <c r="E93" s="32"/>
     </row>
-    <row r="94" spans="3:5">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" s="32"/>
       <c r="D94" s="32"/>
       <c r="E94" s="32"/>
     </row>
-    <row r="95" spans="3:5">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" s="32"/>
       <c r="D95" s="32"/>
       <c r="E95" s="32"/>
     </row>
-    <row r="96" spans="3:5">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" s="32"/>
       <c r="D96" s="32"/>
       <c r="E96" s="32"/>
     </row>
-    <row r="97" spans="3:5">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" s="32"/>
       <c r="D97" s="32"/>
       <c r="E97" s="32"/>
     </row>
-    <row r="98" spans="3:5">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" s="32"/>
       <c r="D98" s="32"/>
       <c r="E98" s="32"/>
     </row>
-    <row r="99" spans="3:5">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" s="32"/>
       <c r="D99" s="32"/>
       <c r="E99" s="32"/>
     </row>
-    <row r="100" spans="3:5">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" s="32"/>
       <c r="D100" s="32"/>
       <c r="E100" s="32"/>
     </row>
-    <row r="101" spans="3:5">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" s="32"/>
       <c r="D101" s="32"/>
       <c r="E101" s="32"/>
     </row>
-    <row r="102" spans="3:5">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" s="32"/>
       <c r="D102" s="32"/>
       <c r="E102" s="32"/>
     </row>
-    <row r="103" spans="3:5">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" s="32"/>
       <c r="D103" s="32"/>
       <c r="E103" s="32"/>
     </row>
-    <row r="104" spans="3:5">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" s="32"/>
       <c r="D104" s="32"/>
       <c r="E104" s="32"/>
     </row>
-    <row r="105" spans="3:5">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" s="32"/>
       <c r="D105" s="32"/>
       <c r="E105" s="32"/>
     </row>
-    <row r="106" spans="3:5">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106" s="32"/>
       <c r="D106" s="32"/>
       <c r="E106" s="32"/>
     </row>
-    <row r="107" spans="3:5">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107" s="32"/>
       <c r="D107" s="32"/>
       <c r="E107" s="32"/>
     </row>
-    <row r="108" spans="3:5">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108" s="32"/>
       <c r="D108" s="32"/>
       <c r="E108" s="32"/>
     </row>
-    <row r="109" spans="3:5">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109" s="32"/>
       <c r="D109" s="32"/>
       <c r="E109" s="32"/>
     </row>
-    <row r="110" spans="3:5">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110" s="32"/>
       <c r="D110" s="32"/>
       <c r="E110" s="32"/>
     </row>
-    <row r="111" spans="3:5">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" s="32"/>
       <c r="D111" s="32"/>
       <c r="E111" s="32"/>
     </row>
-    <row r="112" spans="3:5">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112" s="32"/>
       <c r="D112" s="32"/>
       <c r="E112" s="32"/>
     </row>
-    <row r="113" spans="3:5">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C113" s="32"/>
       <c r="D113" s="32"/>
       <c r="E113" s="32"/>
     </row>
-    <row r="114" spans="3:5">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114" s="32"/>
       <c r="D114" s="32"/>
       <c r="E114" s="32"/>
     </row>
-    <row r="115" spans="3:5">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115" s="32"/>
       <c r="D115" s="32"/>
       <c r="E115" s="32"/>
     </row>
-    <row r="116" spans="3:5">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" s="32"/>
       <c r="D116" s="32"/>
       <c r="E116" s="32"/>
     </row>
-    <row r="117" spans="3:5">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" s="32"/>
       <c r="D117" s="32"/>
       <c r="E117" s="32"/>
     </row>
-    <row r="118" spans="3:5">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" s="32"/>
       <c r="D118" s="32"/>
       <c r="E118" s="32"/>
     </row>
-    <row r="119" spans="3:5">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
       <c r="E119" s="32"/>
     </row>
-    <row r="120" spans="3:5">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C120" s="32"/>
       <c r="D120" s="32"/>
       <c r="E120" s="32"/>
     </row>
-    <row r="121" spans="3:5">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C121" s="32"/>
       <c r="D121" s="32"/>
       <c r="E121" s="32"/>
     </row>
-    <row r="122" spans="3:5">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C122" s="32"/>
       <c r="D122" s="32"/>
       <c r="E122" s="32"/>
     </row>
-    <row r="123" spans="3:5">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C123" s="32"/>
       <c r="D123" s="32"/>
       <c r="E123" s="32"/>
     </row>
-    <row r="124" spans="3:5">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C124" s="32"/>
       <c r="D124" s="32"/>
       <c r="E124" s="32"/>
     </row>
-    <row r="125" spans="3:5">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C125" s="32"/>
       <c r="D125" s="32"/>
       <c r="E125" s="32"/>
     </row>
-    <row r="126" spans="3:5">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C126" s="32"/>
       <c r="D126" s="32"/>
       <c r="E126" s="32"/>
     </row>
-    <row r="127" spans="3:5">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C127" s="32"/>
       <c r="D127" s="32"/>
       <c r="E127" s="32"/>
     </row>
-    <row r="128" spans="3:5">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C128" s="32"/>
       <c r="D128" s="32"/>
       <c r="E128" s="32"/>
     </row>
-    <row r="129" spans="3:5">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129" s="32"/>
       <c r="D129" s="32"/>
       <c r="E129" s="32"/>
     </row>
-    <row r="130" spans="3:5">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C130" s="32"/>
       <c r="D130" s="32"/>
       <c r="E130" s="32"/>
     </row>
-    <row r="131" spans="3:5">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C131" s="32"/>
       <c r="D131" s="32"/>
       <c r="E131" s="32"/>
     </row>
-    <row r="132" spans="3:5">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C132" s="32"/>
       <c r="D132" s="32"/>
       <c r="E132" s="32"/>
     </row>
-    <row r="133" spans="3:5">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C133" s="32"/>
       <c r="D133" s="32"/>
       <c r="E133" s="32"/>
     </row>
-    <row r="134" spans="3:5">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134" s="32"/>
       <c r="D134" s="32"/>
       <c r="E134" s="32"/>
     </row>
-    <row r="135" spans="3:5">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C135" s="32"/>
       <c r="D135" s="32"/>
       <c r="E135" s="32"/>
     </row>
-    <row r="136" spans="3:5">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C136" s="32"/>
       <c r="D136" s="32"/>
       <c r="E136" s="32"/>
     </row>
-    <row r="137" spans="3:5">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C137" s="32"/>
       <c r="D137" s="32"/>
       <c r="E137" s="32"/>
     </row>
-    <row r="138" spans="3:5">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C138" s="32"/>
       <c r="D138" s="32"/>
       <c r="E138" s="32"/>
     </row>
-    <row r="139" spans="3:5">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C139" s="32"/>
       <c r="D139" s="32"/>
       <c r="E139" s="32"/>
     </row>
-    <row r="140" spans="3:5">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C140" s="32"/>
       <c r="D140" s="32"/>
       <c r="E140" s="32"/>
     </row>
-    <row r="141" spans="3:5">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C141" s="32"/>
       <c r="D141" s="32"/>
       <c r="E141" s="32"/>
     </row>
-    <row r="142" spans="3:5">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C142" s="32"/>
       <c r="D142" s="32"/>
       <c r="E142" s="32"/>
     </row>
-    <row r="143" spans="3:5">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C143" s="32"/>
       <c r="D143" s="32"/>
       <c r="E143" s="32"/>
     </row>
-    <row r="144" spans="3:5">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C144" s="32"/>
       <c r="D144" s="32"/>
       <c r="E144" s="32"/>
     </row>
-    <row r="145" spans="3:5">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C145" s="32"/>
       <c r="D145" s="32"/>
       <c r="E145" s="32"/>
     </row>
-    <row r="146" spans="3:5">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C146" s="32"/>
       <c r="D146" s="32"/>
       <c r="E146" s="32"/>
     </row>
-    <row r="147" spans="3:5">
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C147" s="32"/>
       <c r="D147" s="32"/>
       <c r="E147" s="32"/>
     </row>
-    <row r="148" spans="3:5">
+    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C148" s="32"/>
       <c r="D148" s="32"/>
       <c r="E148" s="32"/>
     </row>
-    <row r="149" spans="3:5">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C149" s="32"/>
       <c r="D149" s="32"/>
       <c r="E149" s="32"/>
     </row>
-    <row r="150" spans="3:5">
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C150" s="32"/>
       <c r="D150" s="32"/>
       <c r="E150" s="32"/>
     </row>
-    <row r="151" spans="3:5">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C151" s="32"/>
       <c r="D151" s="32"/>
       <c r="E151" s="32"/>
     </row>
-    <row r="152" spans="3:5">
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C152" s="32"/>
       <c r="D152" s="32"/>
       <c r="E152" s="32"/>
     </row>
-    <row r="153" spans="3:5">
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C153" s="32"/>
       <c r="D153" s="32"/>
       <c r="E153" s="32"/>
     </row>
-    <row r="154" spans="3:5">
+    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C154" s="32"/>
       <c r="D154" s="32"/>
       <c r="E154" s="32"/>
     </row>
-    <row r="155" spans="3:5">
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C155" s="32"/>
       <c r="D155" s="32"/>
       <c r="E155" s="32"/>
     </row>
-    <row r="156" spans="3:5">
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C156" s="32"/>
       <c r="D156" s="32"/>
       <c r="E156" s="32"/>
     </row>
-    <row r="157" spans="3:5">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C157" s="32"/>
       <c r="D157" s="32"/>
       <c r="E157" s="32"/>
     </row>
-    <row r="158" spans="3:5">
+    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C158" s="32"/>
       <c r="D158" s="32"/>
       <c r="E158" s="32"/>
     </row>
-    <row r="159" spans="3:5">
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C159" s="32"/>
       <c r="D159" s="32"/>
       <c r="E159" s="32"/>
     </row>
-    <row r="160" spans="3:5">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C160" s="32"/>
       <c r="D160" s="32"/>
       <c r="E160" s="32"/>
     </row>
-    <row r="161" spans="3:5">
+    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C161" s="32"/>
       <c r="D161" s="32"/>
       <c r="E161" s="32"/>
     </row>
-    <row r="162" spans="3:5">
+    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C162" s="32"/>
       <c r="D162" s="32"/>
       <c r="E162" s="32"/>
     </row>
-    <row r="163" spans="3:5">
+    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C163" s="32"/>
       <c r="D163" s="32"/>
       <c r="E163" s="32"/>
     </row>
-    <row r="164" spans="3:5">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
       <c r="E164" s="32"/>
     </row>
-    <row r="165" spans="3:5">
+    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C165" s="32"/>
       <c r="D165" s="32"/>
       <c r="E165" s="32"/>
     </row>
-    <row r="166" spans="3:5">
+    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C166" s="32"/>
       <c r="D166" s="32"/>
       <c r="E166" s="32"/>
     </row>
-    <row r="167" spans="3:5">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C167" s="32"/>
       <c r="D167" s="32"/>
       <c r="E167" s="32"/>
     </row>
-    <row r="168" spans="3:5">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C168" s="32"/>
       <c r="D168" s="32"/>
       <c r="E168" s="32"/>
     </row>
-    <row r="169" spans="3:5">
+    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C169" s="32"/>
       <c r="D169" s="32"/>
       <c r="E169" s="32"/>
     </row>
-    <row r="170" spans="3:5">
+    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C170" s="32"/>
       <c r="D170" s="32"/>
       <c r="E170" s="32"/>
     </row>
-    <row r="65540" spans="1:1">
+    <row r="65540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65540" s="95"/>
     </row>
   </sheetData>
@@ -7731,14 +7723,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y317"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="9.140625" style="96"/>
     <col min="12" max="12" width="11" style="96" bestFit="1" customWidth="1"/>
@@ -7747,71 +7739,71 @@
     <col min="19" max="16384" width="9.140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="159" t="s">
+    <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-    </row>
-    <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="160" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+    </row>
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-    </row>
-    <row r="3" spans="1:25" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="161" t="s">
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+    </row>
+    <row r="3" spans="1:25" s="97" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="163"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="167"/>
       <c r="T3" s="98"/>
       <c r="U3" s="99"/>
       <c r="V3" s="99"/>
@@ -7819,56 +7811,56 @@
       <c r="X3" s="99"/>
       <c r="Y3" s="100"/>
     </row>
-    <row r="4" spans="1:25" s="100" customFormat="1">
-      <c r="A4" s="164" t="s">
+    <row r="4" spans="1:25" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="151" t="s">
+      <c r="E4" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="151" t="s">
+      <c r="F4" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="155" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="151" t="s">
+      <c r="H4" s="155" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="151" t="s">
+      <c r="I4" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="151" t="s">
+      <c r="J4" s="155" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="153" t="s">
+      <c r="K4" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="155" t="s">
+      <c r="L4" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="157" t="s">
+      <c r="M4" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="168" t="s">
+      <c r="N4" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="170" t="s">
+      <c r="O4" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="172" t="s">
+      <c r="P4" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="Q4" s="174" t="s">
+      <c r="Q4" s="153" t="s">
         <v>94</v>
       </c>
       <c r="R4" s="101" t="s">
@@ -7880,24 +7872,24 @@
       <c r="W4" s="99"/>
       <c r="X4" s="99"/>
     </row>
-    <row r="5" spans="1:25" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="165"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="175"/>
+    <row r="5" spans="1:25" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="169"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="154"/>
       <c r="R5" s="103" t="s">
         <v>95</v>
       </c>
@@ -7908,7 +7900,7 @@
       <c r="X5" s="105"/>
       <c r="Y5" s="106"/>
     </row>
-    <row r="6" spans="1:25" s="106" customFormat="1">
+    <row r="6" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="107" t="s">
         <v>96</v>
       </c>
@@ -7941,7 +7933,7 @@
       <c r="W6" s="105"/>
       <c r="X6" s="99"/>
     </row>
-    <row r="7" spans="1:25" s="106" customFormat="1">
+    <row r="7" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>97</v>
       </c>
@@ -7978,7 +7970,7 @@
       <c r="W7" s="105"/>
       <c r="X7" s="105"/>
     </row>
-    <row r="8" spans="1:25" s="106" customFormat="1">
+    <row r="8" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="107" t="s">
         <v>98</v>
       </c>
@@ -8015,7 +8007,7 @@
       <c r="W8" s="105"/>
       <c r="X8" s="99"/>
     </row>
-    <row r="9" spans="1:25" s="106" customFormat="1">
+    <row r="9" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="107" t="s">
         <v>100</v>
       </c>
@@ -8048,7 +8040,7 @@
       <c r="W9" s="105"/>
       <c r="X9" s="105"/>
     </row>
-    <row r="10" spans="1:25" s="106" customFormat="1">
+    <row r="10" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="107" t="s">
         <v>101</v>
       </c>
@@ -8083,7 +8075,7 @@
       <c r="W10" s="105"/>
       <c r="X10" s="99"/>
     </row>
-    <row r="11" spans="1:25" s="106" customFormat="1">
+    <row r="11" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="107" t="s">
         <v>102</v>
       </c>
@@ -8118,7 +8110,7 @@
       <c r="W11" s="105"/>
       <c r="X11" s="105"/>
     </row>
-    <row r="12" spans="1:25" s="106" customFormat="1">
+    <row r="12" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="107" t="s">
         <v>103</v>
       </c>
@@ -8151,7 +8143,7 @@
       <c r="W12" s="105"/>
       <c r="X12" s="99"/>
     </row>
-    <row r="13" spans="1:25" s="106" customFormat="1">
+    <row r="13" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="107" t="s">
         <v>104</v>
       </c>
@@ -8184,7 +8176,7 @@
       <c r="W13" s="105"/>
       <c r="X13" s="105"/>
     </row>
-    <row r="14" spans="1:25" s="106" customFormat="1">
+    <row r="14" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="107" t="s">
         <v>105</v>
       </c>
@@ -8217,7 +8209,7 @@
       <c r="W14" s="105"/>
       <c r="X14" s="99"/>
     </row>
-    <row r="15" spans="1:25" s="106" customFormat="1">
+    <row r="15" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
         <v>106</v>
       </c>
@@ -8252,7 +8244,7 @@
       <c r="W15" s="105"/>
       <c r="X15" s="105"/>
     </row>
-    <row r="16" spans="1:25" s="106" customFormat="1">
+    <row r="16" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="107" t="s">
         <v>107</v>
       </c>
@@ -8287,7 +8279,7 @@
       <c r="W16" s="105"/>
       <c r="X16" s="99"/>
     </row>
-    <row r="17" spans="1:24" s="106" customFormat="1">
+    <row r="17" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="107" t="s">
         <v>108</v>
       </c>
@@ -8320,7 +8312,7 @@
       <c r="W17" s="105"/>
       <c r="X17" s="105"/>
     </row>
-    <row r="18" spans="1:24" s="106" customFormat="1">
+    <row r="18" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="107" t="s">
         <v>109</v>
       </c>
@@ -8353,7 +8345,7 @@
       <c r="W18" s="105"/>
       <c r="X18" s="99"/>
     </row>
-    <row r="19" spans="1:24" s="106" customFormat="1">
+    <row r="19" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="107" t="s">
         <v>110</v>
       </c>
@@ -8388,7 +8380,7 @@
       <c r="W19" s="105"/>
       <c r="X19" s="105"/>
     </row>
-    <row r="20" spans="1:24" s="106" customFormat="1">
+    <row r="20" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="107" t="s">
         <v>111</v>
       </c>
@@ -8423,7 +8415,7 @@
       <c r="W20" s="105"/>
       <c r="X20" s="99"/>
     </row>
-    <row r="21" spans="1:24" s="106" customFormat="1">
+    <row r="21" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="107" t="s">
         <v>112</v>
       </c>
@@ -8455,7 +8447,7 @@
       <c r="W21" s="120"/>
       <c r="X21" s="120"/>
     </row>
-    <row r="22" spans="1:24" s="115" customFormat="1">
+    <row r="22" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="107" t="s">
         <v>113</v>
       </c>
@@ -8486,7 +8478,7 @@
       <c r="S22" s="121"/>
       <c r="T22" s="119"/>
     </row>
-    <row r="23" spans="1:24" s="106" customFormat="1">
+    <row r="23" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>114</v>
       </c>
@@ -8515,7 +8507,7 @@
       <c r="S23" s="112"/>
       <c r="T23" s="119"/>
     </row>
-    <row r="24" spans="1:24" s="106" customFormat="1">
+    <row r="24" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="114" t="s">
         <v>115</v>
       </c>
@@ -8546,7 +8538,7 @@
       <c r="S24" s="112"/>
       <c r="T24" s="119"/>
     </row>
-    <row r="25" spans="1:24" s="106" customFormat="1">
+    <row r="25" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="114" t="s">
         <v>116</v>
       </c>
@@ -8577,7 +8569,7 @@
       <c r="U25" s="122"/>
       <c r="V25" s="122"/>
     </row>
-    <row r="26" spans="1:24" s="106" customFormat="1">
+    <row r="26" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="114" t="s">
         <v>117</v>
       </c>
@@ -8608,7 +8600,7 @@
       <c r="U26" s="123"/>
       <c r="V26" s="123"/>
     </row>
-    <row r="27" spans="1:24" s="106" customFormat="1">
+    <row r="27" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="114" t="s">
         <v>118</v>
       </c>
@@ -8639,7 +8631,7 @@
       <c r="U27" s="122"/>
       <c r="V27" s="122"/>
     </row>
-    <row r="28" spans="1:24" s="106" customFormat="1">
+    <row r="28" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="114" t="s">
         <v>119</v>
       </c>
@@ -8669,7 +8661,7 @@
       </c>
       <c r="S28" s="112"/>
     </row>
-    <row r="29" spans="1:24" s="115" customFormat="1">
+    <row r="29" spans="1:24" s="115" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="114" t="s">
         <v>120</v>
       </c>
@@ -8707,7 +8699,7 @@
       </c>
       <c r="S29" s="121"/>
     </row>
-    <row r="30" spans="1:24" s="106" customFormat="1">
+    <row r="30" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="114"/>
       <c r="B30" s="113"/>
       <c r="C30" s="114"/>
@@ -8731,7 +8723,7 @@
       </c>
       <c r="S30" s="112"/>
     </row>
-    <row r="31" spans="1:24" s="106" customFormat="1">
+    <row r="31" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="114"/>
       <c r="B31" s="113"/>
       <c r="C31" s="114"/>
@@ -8755,7 +8747,7 @@
       </c>
       <c r="S31" s="112"/>
     </row>
-    <row r="32" spans="1:24" s="106" customFormat="1">
+    <row r="32" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="114"/>
       <c r="B32" s="113"/>
       <c r="C32" s="114"/>
@@ -8779,7 +8771,7 @@
       </c>
       <c r="S32" s="112"/>
     </row>
-    <row r="33" spans="1:19" s="106" customFormat="1" ht="15.75" thickBot="1">
+    <row r="33" spans="1:19" s="106" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="114"/>
       <c r="B33" s="125"/>
       <c r="C33" s="126"/>
@@ -8803,7 +8795,7 @@
       </c>
       <c r="S33" s="112"/>
     </row>
-    <row r="34" spans="1:19" s="134" customFormat="1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:19" s="134" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="129" t="s">
         <v>121</v>
       </c>
@@ -8876,7 +8868,7 @@
         <v>104038</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="135"/>
       <c r="B35" s="136"/>
       <c r="C35" s="136"/>
@@ -8896,1972 +8888,1972 @@
       <c r="Q35" s="137"/>
       <c r="R35" s="138"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F36" s="139"/>
       <c r="G36" s="139"/>
       <c r="H36" s="139"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="139"/>
       <c r="B37" s="139"/>
       <c r="C37" s="139"/>
       <c r="D37" s="139"/>
       <c r="E37" s="139"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="139"/>
       <c r="B38" s="139"/>
       <c r="C38" s="139"/>
       <c r="D38" s="139"/>
       <c r="E38" s="139"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="139"/>
       <c r="B39" s="139"/>
       <c r="C39" s="139"/>
       <c r="D39" s="139"/>
       <c r="E39" s="139"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="139"/>
       <c r="B40" s="139"/>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
       <c r="E40" s="139"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="139"/>
       <c r="B41" s="139"/>
       <c r="C41" s="139"/>
       <c r="D41" s="139"/>
       <c r="E41" s="139"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="139"/>
       <c r="B42" s="139"/>
       <c r="C42" s="139"/>
       <c r="D42" s="139"/>
       <c r="E42" s="139"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="139"/>
       <c r="B43" s="139"/>
       <c r="C43" s="139"/>
       <c r="D43" s="139"/>
       <c r="E43" s="139"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="139"/>
       <c r="B44" s="139"/>
       <c r="C44" s="139"/>
       <c r="D44" s="139"/>
       <c r="E44" s="139"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="139"/>
       <c r="B45" s="139"/>
       <c r="C45" s="139"/>
       <c r="D45" s="139"/>
       <c r="E45" s="139"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="139"/>
       <c r="B46" s="139"/>
       <c r="C46" s="139"/>
       <c r="D46" s="139"/>
       <c r="E46" s="139"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="139"/>
       <c r="B47" s="139"/>
       <c r="C47" s="139"/>
       <c r="D47" s="139"/>
       <c r="E47" s="139"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="139"/>
       <c r="B48" s="139"/>
       <c r="C48" s="139"/>
       <c r="D48" s="139"/>
       <c r="E48" s="139"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="139"/>
       <c r="B49" s="139"/>
       <c r="C49" s="139"/>
       <c r="D49" s="139"/>
       <c r="E49" s="139"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="139"/>
       <c r="B50" s="139"/>
       <c r="C50" s="139"/>
       <c r="D50" s="139"/>
       <c r="E50" s="139"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="139"/>
       <c r="B51" s="139"/>
       <c r="C51" s="139"/>
       <c r="D51" s="139"/>
       <c r="E51" s="139"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="139"/>
       <c r="B52" s="139"/>
       <c r="C52" s="139"/>
       <c r="D52" s="139"/>
       <c r="E52" s="139"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="139"/>
       <c r="B53" s="139"/>
       <c r="C53" s="139"/>
       <c r="D53" s="139"/>
       <c r="E53" s="139"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="139"/>
       <c r="B54" s="139"/>
       <c r="C54" s="139"/>
       <c r="D54" s="139"/>
       <c r="E54" s="139"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="139"/>
       <c r="B55" s="139"/>
       <c r="C55" s="139"/>
       <c r="D55" s="139"/>
       <c r="E55" s="139"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="139"/>
       <c r="B56" s="139"/>
       <c r="C56" s="139"/>
       <c r="D56" s="139"/>
       <c r="E56" s="139"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="139"/>
       <c r="B57" s="139"/>
       <c r="C57" s="139"/>
       <c r="D57" s="139"/>
       <c r="E57" s="139"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="139"/>
       <c r="B58" s="139"/>
       <c r="C58" s="139"/>
       <c r="D58" s="139"/>
       <c r="E58" s="139"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="139"/>
       <c r="B59" s="139"/>
       <c r="C59" s="139"/>
       <c r="D59" s="139"/>
       <c r="E59" s="139"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="139"/>
       <c r="B60" s="139"/>
       <c r="C60" s="139"/>
       <c r="D60" s="139"/>
       <c r="E60" s="139"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="139"/>
       <c r="B61" s="139"/>
       <c r="C61" s="139"/>
       <c r="D61" s="139"/>
       <c r="E61" s="139"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="139"/>
       <c r="B62" s="139"/>
       <c r="C62" s="139"/>
       <c r="D62" s="139"/>
       <c r="E62" s="139"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="139"/>
       <c r="B63" s="139"/>
       <c r="C63" s="139"/>
       <c r="D63" s="139"/>
       <c r="E63" s="139"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="139"/>
       <c r="B64" s="139"/>
       <c r="C64" s="139"/>
       <c r="D64" s="139"/>
       <c r="E64" s="139"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="139"/>
       <c r="B65" s="139"/>
       <c r="C65" s="139"/>
       <c r="D65" s="139"/>
       <c r="E65" s="139"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="139"/>
       <c r="B66" s="139"/>
       <c r="C66" s="139"/>
       <c r="D66" s="139"/>
       <c r="E66" s="139"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="139"/>
       <c r="B67" s="139"/>
       <c r="C67" s="139"/>
       <c r="D67" s="139"/>
       <c r="E67" s="139"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="139"/>
       <c r="B68" s="139"/>
       <c r="C68" s="139"/>
       <c r="D68" s="139"/>
       <c r="E68" s="139"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="139"/>
       <c r="B69" s="139"/>
       <c r="C69" s="139"/>
       <c r="D69" s="139"/>
       <c r="E69" s="139"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="139"/>
       <c r="B70" s="139"/>
       <c r="C70" s="139"/>
       <c r="D70" s="139"/>
       <c r="E70" s="139"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="139"/>
       <c r="B71" s="139"/>
       <c r="C71" s="139"/>
       <c r="D71" s="139"/>
       <c r="E71" s="139"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="139"/>
       <c r="B72" s="139"/>
       <c r="C72" s="139"/>
       <c r="D72" s="139"/>
       <c r="E72" s="139"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="139"/>
       <c r="B73" s="139"/>
       <c r="C73" s="139"/>
       <c r="D73" s="139"/>
       <c r="E73" s="139"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="139"/>
       <c r="B74" s="139"/>
       <c r="C74" s="139"/>
       <c r="D74" s="139"/>
       <c r="E74" s="139"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="139"/>
       <c r="B75" s="139"/>
       <c r="C75" s="139"/>
       <c r="D75" s="139"/>
       <c r="E75" s="139"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="139"/>
       <c r="B76" s="139"/>
       <c r="C76" s="139"/>
       <c r="D76" s="139"/>
       <c r="E76" s="139"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="139"/>
       <c r="B77" s="139"/>
       <c r="C77" s="139"/>
       <c r="D77" s="139"/>
       <c r="E77" s="139"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="139"/>
       <c r="B78" s="139"/>
       <c r="C78" s="139"/>
       <c r="D78" s="139"/>
       <c r="E78" s="139"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="139"/>
       <c r="B79" s="139"/>
       <c r="C79" s="139"/>
       <c r="D79" s="139"/>
       <c r="E79" s="139"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="139"/>
       <c r="B80" s="139"/>
       <c r="C80" s="139"/>
       <c r="D80" s="139"/>
       <c r="E80" s="139"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="139"/>
       <c r="B81" s="139"/>
       <c r="C81" s="139"/>
       <c r="D81" s="139"/>
       <c r="E81" s="139"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="139"/>
       <c r="B82" s="139"/>
       <c r="C82" s="139"/>
       <c r="D82" s="139"/>
       <c r="E82" s="139"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="139"/>
       <c r="B83" s="139"/>
       <c r="C83" s="139"/>
       <c r="D83" s="139"/>
       <c r="E83" s="139"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="139"/>
       <c r="B84" s="139"/>
       <c r="C84" s="139"/>
       <c r="D84" s="139"/>
       <c r="E84" s="139"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="139"/>
       <c r="B85" s="139"/>
       <c r="C85" s="139"/>
       <c r="D85" s="139"/>
       <c r="E85" s="139"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="139"/>
       <c r="B86" s="139"/>
       <c r="C86" s="139"/>
       <c r="D86" s="139"/>
       <c r="E86" s="139"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="139"/>
       <c r="B87" s="139"/>
       <c r="C87" s="139"/>
       <c r="D87" s="139"/>
       <c r="E87" s="139"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="139"/>
       <c r="B88" s="139"/>
       <c r="C88" s="139"/>
       <c r="D88" s="139"/>
       <c r="E88" s="139"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="139"/>
       <c r="B89" s="139"/>
       <c r="C89" s="139"/>
       <c r="D89" s="139"/>
       <c r="E89" s="139"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="139"/>
       <c r="B90" s="139"/>
       <c r="C90" s="139"/>
       <c r="D90" s="139"/>
       <c r="E90" s="139"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="139"/>
       <c r="B91" s="139"/>
       <c r="C91" s="139"/>
       <c r="D91" s="139"/>
       <c r="E91" s="139"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="139"/>
       <c r="B92" s="139"/>
       <c r="C92" s="139"/>
       <c r="D92" s="139"/>
       <c r="E92" s="139"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="139"/>
       <c r="B93" s="139"/>
       <c r="C93" s="139"/>
       <c r="D93" s="139"/>
       <c r="E93" s="139"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="139"/>
       <c r="B94" s="139"/>
       <c r="C94" s="139"/>
       <c r="D94" s="139"/>
       <c r="E94" s="139"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="139"/>
       <c r="B95" s="139"/>
       <c r="C95" s="139"/>
       <c r="D95" s="139"/>
       <c r="E95" s="139"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="139"/>
       <c r="B96" s="139"/>
       <c r="C96" s="139"/>
       <c r="D96" s="139"/>
       <c r="E96" s="139"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="139"/>
       <c r="B97" s="139"/>
       <c r="C97" s="139"/>
       <c r="D97" s="139"/>
       <c r="E97" s="139"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="139"/>
       <c r="B98" s="139"/>
       <c r="C98" s="139"/>
       <c r="D98" s="139"/>
       <c r="E98" s="139"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="139"/>
       <c r="B99" s="139"/>
       <c r="C99" s="139"/>
       <c r="D99" s="139"/>
       <c r="E99" s="139"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="139"/>
       <c r="B100" s="139"/>
       <c r="C100" s="139"/>
       <c r="D100" s="139"/>
       <c r="E100" s="139"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="139"/>
       <c r="B101" s="139"/>
       <c r="C101" s="139"/>
       <c r="D101" s="139"/>
       <c r="E101" s="139"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="139"/>
       <c r="B102" s="139"/>
       <c r="C102" s="139"/>
       <c r="D102" s="139"/>
       <c r="E102" s="139"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="139"/>
       <c r="B103" s="139"/>
       <c r="C103" s="139"/>
       <c r="D103" s="139"/>
       <c r="E103" s="139"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="139"/>
       <c r="B104" s="139"/>
       <c r="C104" s="139"/>
       <c r="D104" s="139"/>
       <c r="E104" s="139"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="139"/>
       <c r="B105" s="139"/>
       <c r="C105" s="139"/>
       <c r="D105" s="139"/>
       <c r="E105" s="139"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="139"/>
       <c r="B106" s="139"/>
       <c r="C106" s="139"/>
       <c r="D106" s="139"/>
       <c r="E106" s="139"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="139"/>
       <c r="B107" s="139"/>
       <c r="C107" s="139"/>
       <c r="D107" s="139"/>
       <c r="E107" s="139"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="139"/>
       <c r="B108" s="139"/>
       <c r="C108" s="139"/>
       <c r="D108" s="139"/>
       <c r="E108" s="139"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="139"/>
       <c r="B109" s="139"/>
       <c r="C109" s="139"/>
       <c r="D109" s="139"/>
       <c r="E109" s="139"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="139"/>
       <c r="B110" s="139"/>
       <c r="C110" s="139"/>
       <c r="D110" s="139"/>
       <c r="E110" s="139"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="139"/>
       <c r="B111" s="139"/>
       <c r="C111" s="139"/>
       <c r="D111" s="139"/>
       <c r="E111" s="139"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="139"/>
       <c r="B112" s="139"/>
       <c r="C112" s="139"/>
       <c r="D112" s="139"/>
       <c r="E112" s="139"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="139"/>
       <c r="B113" s="139"/>
       <c r="C113" s="139"/>
       <c r="D113" s="139"/>
       <c r="E113" s="139"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="139"/>
       <c r="B114" s="139"/>
       <c r="C114" s="139"/>
       <c r="D114" s="139"/>
       <c r="E114" s="139"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="139"/>
       <c r="B115" s="139"/>
       <c r="C115" s="139"/>
       <c r="D115" s="139"/>
       <c r="E115" s="139"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="139"/>
       <c r="B116" s="139"/>
       <c r="C116" s="139"/>
       <c r="D116" s="139"/>
       <c r="E116" s="139"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="139"/>
       <c r="B117" s="139"/>
       <c r="C117" s="139"/>
       <c r="D117" s="139"/>
       <c r="E117" s="139"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="139"/>
       <c r="B118" s="139"/>
       <c r="C118" s="139"/>
       <c r="D118" s="139"/>
       <c r="E118" s="139"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="139"/>
       <c r="B119" s="139"/>
       <c r="C119" s="139"/>
       <c r="D119" s="139"/>
       <c r="E119" s="139"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="139"/>
       <c r="B120" s="139"/>
       <c r="C120" s="139"/>
       <c r="D120" s="139"/>
       <c r="E120" s="139"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="139"/>
       <c r="B121" s="139"/>
       <c r="C121" s="139"/>
       <c r="D121" s="139"/>
       <c r="E121" s="139"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="139"/>
       <c r="B122" s="139"/>
       <c r="C122" s="139"/>
       <c r="D122" s="139"/>
       <c r="E122" s="139"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="139"/>
       <c r="B123" s="139"/>
       <c r="C123" s="139"/>
       <c r="D123" s="139"/>
       <c r="E123" s="139"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="139"/>
       <c r="B124" s="139"/>
       <c r="C124" s="139"/>
       <c r="D124" s="139"/>
       <c r="E124" s="139"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="139"/>
       <c r="B125" s="139"/>
       <c r="C125" s="139"/>
       <c r="D125" s="139"/>
       <c r="E125" s="139"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="139"/>
       <c r="B126" s="139"/>
       <c r="C126" s="139"/>
       <c r="D126" s="139"/>
       <c r="E126" s="139"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="139"/>
       <c r="B127" s="139"/>
       <c r="C127" s="139"/>
       <c r="D127" s="139"/>
       <c r="E127" s="139"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="139"/>
       <c r="B128" s="139"/>
       <c r="C128" s="139"/>
       <c r="D128" s="139"/>
       <c r="E128" s="139"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="139"/>
       <c r="B129" s="139"/>
       <c r="C129" s="139"/>
       <c r="D129" s="139"/>
       <c r="E129" s="139"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="139"/>
       <c r="B130" s="139"/>
       <c r="C130" s="139"/>
       <c r="D130" s="139"/>
       <c r="E130" s="139"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="139"/>
       <c r="B131" s="139"/>
       <c r="C131" s="139"/>
       <c r="D131" s="139"/>
       <c r="E131" s="139"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="139"/>
       <c r="B132" s="139"/>
       <c r="C132" s="139"/>
       <c r="D132" s="139"/>
       <c r="E132" s="139"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="139"/>
       <c r="B133" s="139"/>
       <c r="C133" s="139"/>
       <c r="D133" s="139"/>
       <c r="E133" s="139"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="139"/>
       <c r="B134" s="139"/>
       <c r="C134" s="139"/>
       <c r="D134" s="139"/>
       <c r="E134" s="139"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="139"/>
       <c r="B135" s="139"/>
       <c r="C135" s="139"/>
       <c r="D135" s="139"/>
       <c r="E135" s="139"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="139"/>
       <c r="B136" s="139"/>
       <c r="C136" s="139"/>
       <c r="D136" s="139"/>
       <c r="E136" s="139"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="139"/>
       <c r="B137" s="139"/>
       <c r="C137" s="139"/>
       <c r="D137" s="139"/>
       <c r="E137" s="139"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="139"/>
       <c r="B138" s="139"/>
       <c r="C138" s="139"/>
       <c r="D138" s="139"/>
       <c r="E138" s="139"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="139"/>
       <c r="B139" s="139"/>
       <c r="C139" s="139"/>
       <c r="D139" s="139"/>
       <c r="E139" s="139"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="139"/>
       <c r="B140" s="139"/>
       <c r="C140" s="139"/>
       <c r="D140" s="139"/>
       <c r="E140" s="139"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="139"/>
       <c r="B141" s="139"/>
       <c r="C141" s="139"/>
       <c r="D141" s="139"/>
       <c r="E141" s="139"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="139"/>
       <c r="B142" s="139"/>
       <c r="C142" s="139"/>
       <c r="D142" s="139"/>
       <c r="E142" s="139"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="139"/>
       <c r="B143" s="139"/>
       <c r="C143" s="139"/>
       <c r="D143" s="139"/>
       <c r="E143" s="139"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="139"/>
       <c r="B144" s="139"/>
       <c r="C144" s="139"/>
       <c r="D144" s="139"/>
       <c r="E144" s="139"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="139"/>
       <c r="B145" s="139"/>
       <c r="C145" s="139"/>
       <c r="D145" s="139"/>
       <c r="E145" s="139"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="139"/>
       <c r="B146" s="139"/>
       <c r="C146" s="139"/>
       <c r="D146" s="139"/>
       <c r="E146" s="139"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="139"/>
       <c r="B147" s="139"/>
       <c r="C147" s="139"/>
       <c r="D147" s="139"/>
       <c r="E147" s="139"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="139"/>
       <c r="B148" s="139"/>
       <c r="C148" s="139"/>
       <c r="D148" s="139"/>
       <c r="E148" s="139"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="139"/>
       <c r="B149" s="139"/>
       <c r="C149" s="139"/>
       <c r="D149" s="139"/>
       <c r="E149" s="139"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="139"/>
       <c r="B150" s="139"/>
       <c r="C150" s="139"/>
       <c r="D150" s="139"/>
       <c r="E150" s="139"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="139"/>
       <c r="B151" s="139"/>
       <c r="C151" s="139"/>
       <c r="D151" s="139"/>
       <c r="E151" s="139"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="139"/>
       <c r="B152" s="139"/>
       <c r="C152" s="139"/>
       <c r="D152" s="139"/>
       <c r="E152" s="139"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="139"/>
       <c r="B153" s="139"/>
       <c r="C153" s="139"/>
       <c r="D153" s="139"/>
       <c r="E153" s="139"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="139"/>
       <c r="B154" s="139"/>
       <c r="C154" s="139"/>
       <c r="D154" s="139"/>
       <c r="E154" s="139"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="139"/>
       <c r="B155" s="139"/>
       <c r="C155" s="139"/>
       <c r="D155" s="139"/>
       <c r="E155" s="139"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="139"/>
       <c r="B156" s="139"/>
       <c r="C156" s="139"/>
       <c r="D156" s="139"/>
       <c r="E156" s="139"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="139"/>
       <c r="B157" s="139"/>
       <c r="C157" s="139"/>
       <c r="D157" s="139"/>
       <c r="E157" s="139"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="139"/>
       <c r="B158" s="139"/>
       <c r="C158" s="139"/>
       <c r="D158" s="139"/>
       <c r="E158" s="139"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="139"/>
       <c r="B159" s="139"/>
       <c r="C159" s="139"/>
       <c r="D159" s="139"/>
       <c r="E159" s="139"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="139"/>
       <c r="B160" s="139"/>
       <c r="C160" s="139"/>
       <c r="D160" s="139"/>
       <c r="E160" s="139"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="139"/>
       <c r="B161" s="139"/>
       <c r="C161" s="139"/>
       <c r="D161" s="139"/>
       <c r="E161" s="139"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="139"/>
       <c r="B162" s="139"/>
       <c r="C162" s="139"/>
       <c r="D162" s="139"/>
       <c r="E162" s="139"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="139"/>
       <c r="B163" s="139"/>
       <c r="C163" s="139"/>
       <c r="D163" s="139"/>
       <c r="E163" s="139"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="139"/>
       <c r="B164" s="139"/>
       <c r="C164" s="139"/>
       <c r="D164" s="139"/>
       <c r="E164" s="139"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="139"/>
       <c r="B165" s="139"/>
       <c r="C165" s="139"/>
       <c r="D165" s="139"/>
       <c r="E165" s="139"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="139"/>
       <c r="B166" s="139"/>
       <c r="C166" s="139"/>
       <c r="D166" s="139"/>
       <c r="E166" s="139"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="139"/>
       <c r="B167" s="139"/>
       <c r="C167" s="139"/>
       <c r="D167" s="139"/>
       <c r="E167" s="139"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="139"/>
       <c r="B168" s="139"/>
       <c r="C168" s="139"/>
       <c r="D168" s="139"/>
       <c r="E168" s="139"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="139"/>
       <c r="B169" s="139"/>
       <c r="C169" s="139"/>
       <c r="D169" s="139"/>
       <c r="E169" s="139"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="139"/>
       <c r="B170" s="139"/>
       <c r="C170" s="139"/>
       <c r="D170" s="139"/>
       <c r="E170" s="139"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="139"/>
       <c r="B171" s="139"/>
       <c r="C171" s="139"/>
       <c r="D171" s="139"/>
       <c r="E171" s="139"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="139"/>
       <c r="B172" s="139"/>
       <c r="C172" s="139"/>
       <c r="D172" s="139"/>
       <c r="E172" s="139"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="139"/>
       <c r="B173" s="139"/>
       <c r="C173" s="139"/>
       <c r="D173" s="139"/>
       <c r="E173" s="139"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="139"/>
       <c r="B174" s="139"/>
       <c r="C174" s="139"/>
       <c r="D174" s="139"/>
       <c r="E174" s="139"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="139"/>
       <c r="B175" s="139"/>
       <c r="C175" s="139"/>
       <c r="D175" s="139"/>
       <c r="E175" s="139"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="139"/>
       <c r="B176" s="139"/>
       <c r="C176" s="139"/>
       <c r="D176" s="139"/>
       <c r="E176" s="139"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="139"/>
       <c r="B177" s="139"/>
       <c r="C177" s="139"/>
       <c r="D177" s="139"/>
       <c r="E177" s="139"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="139"/>
       <c r="B178" s="139"/>
       <c r="C178" s="139"/>
       <c r="D178" s="139"/>
       <c r="E178" s="139"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="139"/>
       <c r="B179" s="139"/>
       <c r="C179" s="139"/>
       <c r="D179" s="139"/>
       <c r="E179" s="139"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="139"/>
       <c r="B180" s="139"/>
       <c r="C180" s="139"/>
       <c r="D180" s="139"/>
       <c r="E180" s="139"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="139"/>
       <c r="B181" s="139"/>
       <c r="C181" s="139"/>
       <c r="D181" s="139"/>
       <c r="E181" s="139"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="139"/>
       <c r="B182" s="139"/>
       <c r="C182" s="139"/>
       <c r="D182" s="139"/>
       <c r="E182" s="139"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="139"/>
       <c r="B183" s="139"/>
       <c r="C183" s="139"/>
       <c r="D183" s="139"/>
       <c r="E183" s="139"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="139"/>
       <c r="B184" s="139"/>
       <c r="C184" s="139"/>
       <c r="D184" s="139"/>
       <c r="E184" s="139"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="139"/>
       <c r="B185" s="139"/>
       <c r="C185" s="139"/>
       <c r="D185" s="139"/>
       <c r="E185" s="139"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="139"/>
       <c r="B186" s="139"/>
       <c r="C186" s="139"/>
       <c r="D186" s="139"/>
       <c r="E186" s="139"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="139"/>
       <c r="B187" s="139"/>
       <c r="C187" s="139"/>
       <c r="D187" s="139"/>
       <c r="E187" s="139"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="139"/>
       <c r="B188" s="139"/>
       <c r="C188" s="139"/>
       <c r="D188" s="139"/>
       <c r="E188" s="139"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="139"/>
       <c r="B189" s="139"/>
       <c r="C189" s="139"/>
       <c r="D189" s="139"/>
       <c r="E189" s="139"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="139"/>
       <c r="B190" s="139"/>
       <c r="C190" s="139"/>
       <c r="D190" s="139"/>
       <c r="E190" s="139"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="139"/>
       <c r="B191" s="139"/>
       <c r="C191" s="139"/>
       <c r="D191" s="139"/>
       <c r="E191" s="139"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="139"/>
       <c r="B192" s="139"/>
       <c r="C192" s="139"/>
       <c r="D192" s="139"/>
       <c r="E192" s="139"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="139"/>
       <c r="B193" s="139"/>
       <c r="C193" s="139"/>
       <c r="D193" s="139"/>
       <c r="E193" s="139"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="139"/>
       <c r="B194" s="139"/>
       <c r="C194" s="139"/>
       <c r="D194" s="139"/>
       <c r="E194" s="139"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="139"/>
       <c r="B195" s="139"/>
       <c r="C195" s="139"/>
       <c r="D195" s="139"/>
       <c r="E195" s="139"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="139"/>
       <c r="B196" s="139"/>
       <c r="C196" s="139"/>
       <c r="D196" s="139"/>
       <c r="E196" s="139"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="139"/>
       <c r="B197" s="139"/>
       <c r="C197" s="139"/>
       <c r="D197" s="139"/>
       <c r="E197" s="139"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="139"/>
       <c r="B198" s="139"/>
       <c r="C198" s="139"/>
       <c r="D198" s="139"/>
       <c r="E198" s="139"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="139"/>
       <c r="B199" s="139"/>
       <c r="C199" s="139"/>
       <c r="D199" s="139"/>
       <c r="E199" s="139"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="139"/>
       <c r="B200" s="139"/>
       <c r="C200" s="139"/>
       <c r="D200" s="139"/>
       <c r="E200" s="139"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="139"/>
       <c r="B201" s="139"/>
       <c r="C201" s="139"/>
       <c r="D201" s="139"/>
       <c r="E201" s="139"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="139"/>
       <c r="B202" s="139"/>
       <c r="C202" s="139"/>
       <c r="D202" s="139"/>
       <c r="E202" s="139"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="139"/>
       <c r="B203" s="139"/>
       <c r="C203" s="139"/>
       <c r="D203" s="139"/>
       <c r="E203" s="139"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="139"/>
       <c r="B204" s="139"/>
       <c r="C204" s="139"/>
       <c r="D204" s="139"/>
       <c r="E204" s="139"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="139"/>
       <c r="B205" s="139"/>
       <c r="C205" s="139"/>
       <c r="D205" s="139"/>
       <c r="E205" s="139"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="139"/>
       <c r="B206" s="139"/>
       <c r="C206" s="139"/>
       <c r="D206" s="139"/>
       <c r="E206" s="139"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="139"/>
       <c r="B207" s="139"/>
       <c r="C207" s="139"/>
       <c r="D207" s="139"/>
       <c r="E207" s="139"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="139"/>
       <c r="B208" s="139"/>
       <c r="C208" s="139"/>
       <c r="D208" s="139"/>
       <c r="E208" s="139"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="139"/>
       <c r="B209" s="139"/>
       <c r="C209" s="139"/>
       <c r="D209" s="139"/>
       <c r="E209" s="139"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="139"/>
       <c r="B210" s="139"/>
       <c r="C210" s="139"/>
       <c r="D210" s="139"/>
       <c r="E210" s="139"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="139"/>
       <c r="B211" s="139"/>
       <c r="C211" s="139"/>
       <c r="D211" s="139"/>
       <c r="E211" s="139"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="139"/>
       <c r="B212" s="139"/>
       <c r="C212" s="139"/>
       <c r="D212" s="139"/>
       <c r="E212" s="139"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="139"/>
       <c r="B213" s="139"/>
       <c r="C213" s="139"/>
       <c r="D213" s="139"/>
       <c r="E213" s="139"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="139"/>
       <c r="B214" s="139"/>
       <c r="C214" s="139"/>
       <c r="D214" s="139"/>
       <c r="E214" s="139"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="139"/>
       <c r="B215" s="139"/>
       <c r="C215" s="139"/>
       <c r="D215" s="139"/>
       <c r="E215" s="139"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="139"/>
       <c r="B216" s="139"/>
       <c r="C216" s="139"/>
       <c r="D216" s="139"/>
       <c r="E216" s="139"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="139"/>
       <c r="B217" s="139"/>
       <c r="C217" s="139"/>
       <c r="D217" s="139"/>
       <c r="E217" s="139"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="139"/>
       <c r="B218" s="139"/>
       <c r="C218" s="139"/>
       <c r="D218" s="139"/>
       <c r="E218" s="139"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="139"/>
       <c r="B219" s="139"/>
       <c r="C219" s="139"/>
       <c r="D219" s="139"/>
       <c r="E219" s="139"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="139"/>
       <c r="B220" s="139"/>
       <c r="C220" s="139"/>
       <c r="D220" s="139"/>
       <c r="E220" s="139"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="139"/>
       <c r="B221" s="139"/>
       <c r="C221" s="139"/>
       <c r="D221" s="139"/>
       <c r="E221" s="139"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="139"/>
       <c r="B222" s="139"/>
       <c r="C222" s="139"/>
       <c r="D222" s="139"/>
       <c r="E222" s="139"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="139"/>
       <c r="B223" s="139"/>
       <c r="C223" s="139"/>
       <c r="D223" s="139"/>
       <c r="E223" s="139"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="139"/>
       <c r="B224" s="139"/>
       <c r="C224" s="139"/>
       <c r="D224" s="139"/>
       <c r="E224" s="139"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="139"/>
       <c r="B225" s="139"/>
       <c r="C225" s="139"/>
       <c r="D225" s="139"/>
       <c r="E225" s="139"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="139"/>
       <c r="B226" s="139"/>
       <c r="C226" s="139"/>
       <c r="D226" s="139"/>
       <c r="E226" s="139"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="139"/>
       <c r="B227" s="139"/>
       <c r="C227" s="139"/>
       <c r="D227" s="139"/>
       <c r="E227" s="139"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="139"/>
       <c r="B228" s="139"/>
       <c r="C228" s="139"/>
       <c r="D228" s="139"/>
       <c r="E228" s="139"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="139"/>
       <c r="B229" s="139"/>
       <c r="C229" s="139"/>
       <c r="D229" s="139"/>
       <c r="E229" s="139"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="139"/>
       <c r="B230" s="139"/>
       <c r="C230" s="139"/>
       <c r="D230" s="139"/>
       <c r="E230" s="139"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="139"/>
       <c r="B231" s="139"/>
       <c r="C231" s="139"/>
       <c r="D231" s="139"/>
       <c r="E231" s="139"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="139"/>
       <c r="B232" s="139"/>
       <c r="C232" s="139"/>
       <c r="D232" s="139"/>
       <c r="E232" s="139"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="139"/>
       <c r="B233" s="139"/>
       <c r="C233" s="139"/>
       <c r="D233" s="139"/>
       <c r="E233" s="139"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="139"/>
       <c r="B234" s="139"/>
       <c r="C234" s="139"/>
       <c r="D234" s="139"/>
       <c r="E234" s="139"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="139"/>
       <c r="B235" s="139"/>
       <c r="C235" s="139"/>
       <c r="D235" s="139"/>
       <c r="E235" s="139"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="139"/>
       <c r="B236" s="139"/>
       <c r="C236" s="139"/>
       <c r="D236" s="139"/>
       <c r="E236" s="139"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="139"/>
       <c r="B237" s="139"/>
       <c r="C237" s="139"/>
       <c r="D237" s="139"/>
       <c r="E237" s="139"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="139"/>
       <c r="B238" s="139"/>
       <c r="C238" s="139"/>
       <c r="D238" s="139"/>
       <c r="E238" s="139"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="139"/>
       <c r="B239" s="139"/>
       <c r="C239" s="139"/>
       <c r="D239" s="139"/>
       <c r="E239" s="139"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="139"/>
       <c r="B240" s="139"/>
       <c r="C240" s="139"/>
       <c r="D240" s="139"/>
       <c r="E240" s="139"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="139"/>
       <c r="B241" s="139"/>
       <c r="C241" s="139"/>
       <c r="D241" s="139"/>
       <c r="E241" s="139"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="139"/>
       <c r="B242" s="139"/>
       <c r="C242" s="139"/>
       <c r="D242" s="139"/>
       <c r="E242" s="139"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="139"/>
       <c r="B243" s="139"/>
       <c r="C243" s="139"/>
       <c r="D243" s="139"/>
       <c r="E243" s="139"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="139"/>
       <c r="B244" s="139"/>
       <c r="C244" s="139"/>
       <c r="D244" s="139"/>
       <c r="E244" s="139"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="139"/>
       <c r="B245" s="139"/>
       <c r="C245" s="139"/>
       <c r="D245" s="139"/>
       <c r="E245" s="139"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="139"/>
       <c r="B246" s="139"/>
       <c r="C246" s="139"/>
       <c r="D246" s="139"/>
       <c r="E246" s="139"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="139"/>
       <c r="B247" s="139"/>
       <c r="C247" s="139"/>
       <c r="D247" s="139"/>
       <c r="E247" s="139"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="139"/>
       <c r="B248" s="139"/>
       <c r="C248" s="139"/>
       <c r="D248" s="139"/>
       <c r="E248" s="139"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="139"/>
       <c r="B249" s="139"/>
       <c r="C249" s="139"/>
       <c r="D249" s="139"/>
       <c r="E249" s="139"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="139"/>
       <c r="B250" s="139"/>
       <c r="C250" s="139"/>
       <c r="D250" s="139"/>
       <c r="E250" s="139"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="139"/>
       <c r="B251" s="139"/>
       <c r="C251" s="139"/>
       <c r="D251" s="139"/>
       <c r="E251" s="139"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="139"/>
       <c r="B252" s="139"/>
       <c r="C252" s="139"/>
       <c r="D252" s="139"/>
       <c r="E252" s="139"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="139"/>
       <c r="B253" s="139"/>
       <c r="C253" s="139"/>
       <c r="D253" s="139"/>
       <c r="E253" s="139"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="139"/>
       <c r="B254" s="139"/>
       <c r="C254" s="139"/>
       <c r="D254" s="139"/>
       <c r="E254" s="139"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="139"/>
       <c r="B255" s="139"/>
       <c r="C255" s="139"/>
       <c r="D255" s="139"/>
       <c r="E255" s="139"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="139"/>
       <c r="B256" s="139"/>
       <c r="C256" s="139"/>
       <c r="D256" s="139"/>
       <c r="E256" s="139"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="139"/>
       <c r="B257" s="139"/>
       <c r="C257" s="139"/>
       <c r="D257" s="139"/>
       <c r="E257" s="139"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="139"/>
       <c r="B258" s="139"/>
       <c r="C258" s="139"/>
       <c r="D258" s="139"/>
       <c r="E258" s="139"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="139"/>
       <c r="B259" s="139"/>
       <c r="C259" s="139"/>
       <c r="D259" s="139"/>
       <c r="E259" s="139"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="139"/>
       <c r="B260" s="139"/>
       <c r="C260" s="139"/>
       <c r="D260" s="139"/>
       <c r="E260" s="139"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="139"/>
       <c r="B261" s="139"/>
       <c r="C261" s="139"/>
       <c r="D261" s="139"/>
       <c r="E261" s="139"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="139"/>
       <c r="B262" s="139"/>
       <c r="C262" s="139"/>
       <c r="D262" s="139"/>
       <c r="E262" s="139"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="139"/>
       <c r="B263" s="139"/>
       <c r="C263" s="139"/>
       <c r="D263" s="139"/>
       <c r="E263" s="139"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="139"/>
       <c r="B264" s="139"/>
       <c r="C264" s="139"/>
       <c r="D264" s="139"/>
       <c r="E264" s="139"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="139"/>
       <c r="B265" s="139"/>
       <c r="C265" s="139"/>
       <c r="D265" s="139"/>
       <c r="E265" s="139"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="139"/>
       <c r="B266" s="139"/>
       <c r="C266" s="139"/>
       <c r="D266" s="139"/>
       <c r="E266" s="139"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="139"/>
       <c r="B267" s="139"/>
       <c r="C267" s="139"/>
       <c r="D267" s="139"/>
       <c r="E267" s="139"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="139"/>
       <c r="B268" s="139"/>
       <c r="C268" s="139"/>
       <c r="D268" s="139"/>
       <c r="E268" s="139"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="139"/>
       <c r="B269" s="139"/>
       <c r="C269" s="139"/>
       <c r="D269" s="139"/>
       <c r="E269" s="139"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="139"/>
       <c r="B270" s="139"/>
       <c r="C270" s="139"/>
       <c r="D270" s="139"/>
       <c r="E270" s="139"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="139"/>
       <c r="B271" s="139"/>
       <c r="C271" s="139"/>
       <c r="D271" s="139"/>
       <c r="E271" s="139"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="139"/>
       <c r="B272" s="139"/>
       <c r="C272" s="139"/>
       <c r="D272" s="139"/>
       <c r="E272" s="139"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="139"/>
       <c r="B273" s="139"/>
       <c r="C273" s="139"/>
       <c r="D273" s="139"/>
       <c r="E273" s="139"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="139"/>
       <c r="B274" s="139"/>
       <c r="C274" s="139"/>
       <c r="D274" s="139"/>
       <c r="E274" s="139"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="139"/>
       <c r="B275" s="139"/>
       <c r="C275" s="139"/>
       <c r="D275" s="139"/>
       <c r="E275" s="139"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="139"/>
       <c r="B276" s="139"/>
       <c r="C276" s="139"/>
       <c r="D276" s="139"/>
       <c r="E276" s="139"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="139"/>
       <c r="B277" s="139"/>
       <c r="C277" s="139"/>
       <c r="D277" s="139"/>
       <c r="E277" s="139"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="139"/>
       <c r="B278" s="139"/>
       <c r="C278" s="139"/>
       <c r="D278" s="139"/>
       <c r="E278" s="139"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="139"/>
       <c r="B279" s="139"/>
       <c r="C279" s="139"/>
       <c r="D279" s="139"/>
       <c r="E279" s="139"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="139"/>
       <c r="B280" s="139"/>
       <c r="C280" s="139"/>
       <c r="D280" s="139"/>
       <c r="E280" s="139"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="139"/>
       <c r="B281" s="139"/>
       <c r="C281" s="139"/>
       <c r="D281" s="139"/>
       <c r="E281" s="139"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="139"/>
       <c r="B282" s="139"/>
       <c r="C282" s="139"/>
       <c r="D282" s="139"/>
       <c r="E282" s="139"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="139"/>
       <c r="B283" s="139"/>
       <c r="C283" s="139"/>
       <c r="D283" s="139"/>
       <c r="E283" s="139"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="139"/>
       <c r="B284" s="139"/>
       <c r="C284" s="139"/>
       <c r="D284" s="139"/>
       <c r="E284" s="139"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="139"/>
       <c r="B285" s="139"/>
       <c r="C285" s="139"/>
       <c r="D285" s="139"/>
       <c r="E285" s="139"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="139"/>
       <c r="B286" s="139"/>
       <c r="C286" s="139"/>
       <c r="D286" s="139"/>
       <c r="E286" s="139"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="139"/>
       <c r="B287" s="139"/>
       <c r="C287" s="139"/>
       <c r="D287" s="139"/>
       <c r="E287" s="139"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="139"/>
       <c r="B288" s="139"/>
       <c r="C288" s="139"/>
       <c r="D288" s="139"/>
       <c r="E288" s="139"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="139"/>
       <c r="B289" s="139"/>
       <c r="C289" s="139"/>
       <c r="D289" s="139"/>
       <c r="E289" s="139"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="139"/>
       <c r="B290" s="139"/>
       <c r="C290" s="139"/>
       <c r="D290" s="139"/>
       <c r="E290" s="139"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="139"/>
       <c r="B291" s="139"/>
       <c r="C291" s="139"/>
       <c r="D291" s="139"/>
       <c r="E291" s="139"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="139"/>
       <c r="B292" s="139"/>
       <c r="C292" s="139"/>
       <c r="D292" s="139"/>
       <c r="E292" s="139"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="139"/>
       <c r="B293" s="139"/>
       <c r="C293" s="139"/>
       <c r="D293" s="139"/>
       <c r="E293" s="139"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="139"/>
       <c r="B294" s="139"/>
       <c r="C294" s="139"/>
       <c r="D294" s="139"/>
       <c r="E294" s="139"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="139"/>
       <c r="B295" s="139"/>
       <c r="C295" s="139"/>
       <c r="D295" s="139"/>
       <c r="E295" s="139"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="139"/>
       <c r="B296" s="139"/>
       <c r="C296" s="139"/>
       <c r="D296" s="139"/>
       <c r="E296" s="139"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="139"/>
       <c r="B297" s="139"/>
       <c r="C297" s="139"/>
       <c r="D297" s="139"/>
       <c r="E297" s="139"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="139"/>
       <c r="B298" s="139"/>
       <c r="C298" s="139"/>
       <c r="D298" s="139"/>
       <c r="E298" s="139"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="139"/>
       <c r="B299" s="139"/>
       <c r="C299" s="139"/>
       <c r="D299" s="139"/>
       <c r="E299" s="139"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="139"/>
       <c r="B300" s="139"/>
       <c r="C300" s="139"/>
       <c r="D300" s="139"/>
       <c r="E300" s="139"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="139"/>
       <c r="B301" s="139"/>
       <c r="C301" s="139"/>
       <c r="D301" s="139"/>
       <c r="E301" s="139"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="139"/>
       <c r="B302" s="139"/>
       <c r="C302" s="139"/>
       <c r="D302" s="139"/>
       <c r="E302" s="139"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="139"/>
       <c r="B303" s="139"/>
       <c r="C303" s="139"/>
       <c r="D303" s="139"/>
       <c r="E303" s="139"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="139"/>
       <c r="B304" s="139"/>
       <c r="C304" s="139"/>
       <c r="D304" s="139"/>
       <c r="E304" s="139"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="139"/>
       <c r="B305" s="139"/>
       <c r="C305" s="139"/>
       <c r="D305" s="139"/>
       <c r="E305" s="139"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="139"/>
       <c r="B306" s="139"/>
       <c r="C306" s="139"/>
       <c r="D306" s="139"/>
       <c r="E306" s="139"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="139"/>
       <c r="B307" s="139"/>
       <c r="C307" s="139"/>
       <c r="D307" s="139"/>
       <c r="E307" s="139"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="139"/>
       <c r="B308" s="139"/>
       <c r="C308" s="139"/>
       <c r="D308" s="139"/>
       <c r="E308" s="139"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="139"/>
       <c r="B309" s="139"/>
       <c r="C309" s="139"/>
       <c r="D309" s="139"/>
       <c r="E309" s="139"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="139"/>
       <c r="B310" s="139"/>
       <c r="C310" s="139"/>
       <c r="D310" s="139"/>
       <c r="E310" s="139"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="139"/>
       <c r="B311" s="139"/>
       <c r="C311" s="139"/>
       <c r="D311" s="139"/>
       <c r="E311" s="139"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="139"/>
       <c r="B312" s="139"/>
       <c r="C312" s="139"/>
       <c r="D312" s="139"/>
       <c r="E312" s="139"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="139"/>
       <c r="B313" s="139"/>
       <c r="C313" s="139"/>
       <c r="D313" s="139"/>
       <c r="E313" s="139"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="139"/>
       <c r="B314" s="139"/>
       <c r="C314" s="139"/>
       <c r="D314" s="139"/>
       <c r="E314" s="139"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="139"/>
       <c r="B315" s="139"/>
       <c r="C315" s="139"/>
       <c r="D315" s="139"/>
       <c r="E315" s="139"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="139"/>
       <c r="B316" s="139"/>
       <c r="C316" s="139"/>
       <c r="D316" s="139"/>
       <c r="E316" s="139"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="139"/>
       <c r="B317" s="139"/>
       <c r="C317" s="139"/>
@@ -10870,14 +10862,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
@@ -10890,335 +10874,431 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="143" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="C1" s="178" t="s">
         <v>125</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="142" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="100">
+      <c r="E1" s="142" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="143">
         <v>1908446134</v>
       </c>
-      <c r="B2" s="100">
+      <c r="B2" s="143">
         <v>308640</v>
       </c>
-      <c r="C2" s="141">
+      <c r="C2" s="178">
         <v>2673</v>
       </c>
-      <c r="D2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="100">
+      <c r="D2" s="142">
+        <v>2460</v>
+      </c>
+      <c r="E2" s="179">
+        <f>D2/26</f>
+        <v>94.615384615384613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="143">
         <v>1908446135</v>
       </c>
-      <c r="B3" s="100">
+      <c r="B3" s="143">
         <v>193141</v>
       </c>
-      <c r="C3" s="141">
+      <c r="C3" s="178">
         <v>2590</v>
       </c>
-      <c r="D3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="100">
+      <c r="D3" s="142">
+        <v>1830</v>
+      </c>
+      <c r="E3" s="179">
+        <f t="shared" ref="E3:E23" si="0">D3/26</f>
+        <v>70.384615384615387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="143">
         <v>1908446136</v>
       </c>
-      <c r="B4" s="100">
+      <c r="B4" s="143">
         <v>397400</v>
       </c>
-      <c r="C4" s="141">
+      <c r="C4" s="178">
         <v>3176</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="142">
+        <v>3300</v>
+      </c>
+      <c r="E4" s="179">
+        <f t="shared" si="0"/>
+        <v>126.92307692307692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="143">
+        <v>1908446137</v>
+      </c>
+      <c r="B5" s="143">
+        <v>154786</v>
+      </c>
+      <c r="C5" s="178">
+        <v>1028</v>
+      </c>
+      <c r="D5" s="142">
+        <v>770</v>
+      </c>
+      <c r="E5" s="179">
+        <f t="shared" si="0"/>
+        <v>29.615384615384617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="143">
+        <v>1908446138</v>
+      </c>
+      <c r="B6" s="143">
+        <v>161196</v>
+      </c>
+      <c r="C6" s="178">
+        <v>1629</v>
+      </c>
+      <c r="D6" s="142">
+        <v>1050</v>
+      </c>
+      <c r="E6" s="179">
+        <f t="shared" si="0"/>
+        <v>40.384615384615387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="143">
+        <v>1908446139</v>
+      </c>
+      <c r="B7" s="143">
+        <v>169809</v>
+      </c>
+      <c r="C7" s="178">
+        <v>1400</v>
+      </c>
+      <c r="D7" s="142">
+        <v>770</v>
+      </c>
+      <c r="E7" s="179">
+        <f t="shared" si="0"/>
+        <v>29.615384615384617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="143">
+        <v>1908446140</v>
+      </c>
+      <c r="B8" s="143">
+        <v>151463</v>
+      </c>
+      <c r="C8" s="178">
+        <v>1260</v>
+      </c>
+      <c r="D8" s="142">
+        <v>250</v>
+      </c>
+      <c r="E8" s="179">
+        <f t="shared" si="0"/>
+        <v>9.615384615384615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="143">
+        <v>1908446141</v>
+      </c>
+      <c r="B9" s="143">
+        <v>444345</v>
+      </c>
+      <c r="C9" s="178">
+        <v>3824</v>
+      </c>
+      <c r="D9" s="142">
+        <v>3300</v>
+      </c>
+      <c r="E9" s="179">
+        <f t="shared" si="0"/>
+        <v>126.92307692307692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="143">
+        <v>1908446142</v>
+      </c>
+      <c r="B10" s="143">
+        <v>442646</v>
+      </c>
+      <c r="C10" s="178">
+        <v>3529</v>
+      </c>
+      <c r="D10" s="142">
+        <v>3300</v>
+      </c>
+      <c r="E10" s="179">
+        <f t="shared" si="0"/>
+        <v>126.92307692307692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="143">
+        <v>1908446143</v>
+      </c>
+      <c r="B11" s="143">
+        <v>450547</v>
+      </c>
+      <c r="C11" s="178">
+        <v>3725</v>
+      </c>
+      <c r="D11" s="142">
         <v>2800</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="100">
-        <v>1908446137</v>
-      </c>
-      <c r="B5" s="100">
-        <v>154786</v>
-      </c>
-      <c r="C5" s="141">
-        <v>1028</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="100">
-        <v>1908446138</v>
-      </c>
-      <c r="B6" s="100">
-        <v>161196</v>
-      </c>
-      <c r="C6" s="141">
-        <v>1629</v>
-      </c>
-      <c r="D6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="100">
-        <v>1908446139</v>
-      </c>
-      <c r="B7" s="100">
-        <v>169809</v>
-      </c>
-      <c r="C7" s="141">
-        <v>1400</v>
-      </c>
-      <c r="D7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="100">
-        <v>1908446140</v>
-      </c>
-      <c r="B8" s="100">
-        <v>151463</v>
-      </c>
-      <c r="C8" s="141">
-        <v>1260</v>
-      </c>
-      <c r="D8">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="100">
-        <v>1908446141</v>
-      </c>
-      <c r="B9" s="100">
-        <v>444345</v>
-      </c>
-      <c r="C9" s="141">
-        <v>3824</v>
-      </c>
-      <c r="D9">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="100">
-        <v>1908446142</v>
-      </c>
-      <c r="B10" s="100">
-        <v>442646</v>
-      </c>
-      <c r="C10" s="141">
-        <v>3529</v>
-      </c>
-      <c r="D10">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="100">
-        <v>1908446143</v>
-      </c>
-      <c r="B11" s="100">
-        <v>450547</v>
-      </c>
-      <c r="C11" s="141">
-        <v>3725</v>
-      </c>
-      <c r="D11">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="100">
+      <c r="E11" s="179">
+        <f t="shared" si="0"/>
+        <v>107.69230769230769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="143">
         <v>1908446144</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="143">
         <v>293573</v>
       </c>
-      <c r="C12" s="141">
+      <c r="C12" s="178">
         <v>2750</v>
       </c>
-      <c r="D12">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="100">
+      <c r="D12" s="142">
+        <v>2460</v>
+      </c>
+      <c r="E12" s="179">
+        <f t="shared" si="0"/>
+        <v>94.615384615384613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="143">
         <v>1908446145</v>
       </c>
-      <c r="B13" s="100">
+      <c r="B13" s="143">
         <v>259943</v>
       </c>
-      <c r="C13" s="141">
+      <c r="C13" s="178">
         <v>3150</v>
       </c>
-      <c r="D13">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="100">
+      <c r="D13" s="142">
+        <v>3250</v>
+      </c>
+      <c r="E13" s="179">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="143">
         <v>1908446146</v>
       </c>
-      <c r="B14" s="100">
+      <c r="B14" s="143">
         <v>315622</v>
       </c>
-      <c r="C14" s="141">
+      <c r="C14" s="178">
         <v>5192</v>
       </c>
-      <c r="D14">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="100">
+      <c r="D14" s="142">
+        <v>2070</v>
+      </c>
+      <c r="E14" s="179">
+        <f t="shared" si="0"/>
+        <v>79.615384615384613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="143">
         <v>1908446147</v>
       </c>
-      <c r="B15" s="100">
+      <c r="B15" s="143">
         <v>176916</v>
       </c>
-      <c r="C15" s="141">
+      <c r="C15" s="178">
         <v>2441</v>
       </c>
-      <c r="D15">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="100">
+      <c r="D15" s="142">
+        <v>3120</v>
+      </c>
+      <c r="E15" s="179">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="143">
         <v>1908446148</v>
       </c>
-      <c r="B16" s="100">
+      <c r="B16" s="143">
         <v>145274</v>
       </c>
-      <c r="C16" s="141">
+      <c r="C16" s="178">
         <v>1586</v>
       </c>
-      <c r="D16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="100">
+      <c r="D16" s="142">
+        <v>520</v>
+      </c>
+      <c r="E16" s="179">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="143">
         <v>1908446149</v>
       </c>
-      <c r="B17" s="100">
+      <c r="B17" s="143">
         <v>452079</v>
       </c>
-      <c r="C17" s="141">
+      <c r="C17" s="178">
         <v>4191</v>
       </c>
-      <c r="D17">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="100">
+      <c r="D17" s="142">
+        <v>3250</v>
+      </c>
+      <c r="E17" s="179">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="143">
         <v>1908446150</v>
       </c>
-      <c r="B18" s="100">
+      <c r="B18" s="143">
         <v>208276</v>
       </c>
-      <c r="C18" s="141">
+      <c r="C18" s="178">
         <v>2060</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="142">
         <v>1700</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="100">
+      <c r="E18" s="179">
+        <f t="shared" si="0"/>
+        <v>65.384615384615387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="143">
         <v>1908446151</v>
       </c>
-      <c r="B19" s="100">
+      <c r="B19" s="143">
         <v>477036</v>
       </c>
-      <c r="C19" s="141">
+      <c r="C19" s="178">
         <v>3822</v>
       </c>
-      <c r="D19">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="100">
+      <c r="D19" s="142">
+        <v>3120</v>
+      </c>
+      <c r="E19" s="179">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="143">
         <v>1908446152</v>
       </c>
-      <c r="B20" s="100">
+      <c r="B20" s="143">
         <v>237886</v>
       </c>
-      <c r="C20" s="141">
+      <c r="C20" s="178">
         <v>2238</v>
       </c>
-      <c r="D20">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="100">
+      <c r="D20" s="142">
+        <v>1830</v>
+      </c>
+      <c r="E20" s="179">
+        <f t="shared" si="0"/>
+        <v>70.384615384615387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="143">
         <v>1908446153</v>
       </c>
-      <c r="B21" s="100">
+      <c r="B21" s="143">
         <v>246261</v>
       </c>
-      <c r="C21" s="141">
+      <c r="C21" s="178">
         <v>2452</v>
       </c>
-      <c r="D21">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="100">
+      <c r="D21" s="142">
+        <v>2070</v>
+      </c>
+      <c r="E21" s="179">
+        <f t="shared" si="0"/>
+        <v>79.615384615384613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="143">
         <v>1908446154</v>
       </c>
-      <c r="B22" s="100">
+      <c r="B22" s="143">
         <v>202909</v>
       </c>
-      <c r="C22" s="141">
+      <c r="C22" s="178">
         <v>2567</v>
       </c>
-      <c r="D22">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="142">
+        <v>2600</v>
+      </c>
+      <c r="E22" s="179">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>122</v>
       </c>
@@ -11230,76 +11310,52 @@
       </c>
       <c r="D23">
         <f>SUM(D2:D22)</f>
-        <v>48300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="143">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="142" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="143">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="142" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="142">
-        <f>3611*13.5</f>
-        <v>48748.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="142" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="142">
-        <f>1200*9</f>
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="142">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="142" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="142">
-        <f>SUM(B25:B29)</f>
-        <v>218548.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="142" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="142">
-        <v>104038</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="142" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="142">
-        <f>B30-B31</f>
-        <v>114510.5</v>
-      </c>
+        <v>45820</v>
+      </c>
+      <c r="E23" s="177">
+        <f>SUM(E2:E22)</f>
+        <v>1762.3076923076924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="176"/>
+      <c r="B25" s="99"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="176"/>
+      <c r="B26" s="99"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="176"/>
+      <c r="B27" s="176"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="176"/>
+      <c r="B28" s="176"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="176"/>
+      <c r="B29" s="176"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="176"/>
+      <c r="B30" s="176"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="176"/>
+      <c r="B31" s="176"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="176"/>
+      <c r="B32" s="176"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="176"/>
+      <c r="B33" s="176"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="176"/>
+      <c r="B34" s="176"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Others/Expense NAT08.xlsx
+++ b/Others/Expense NAT08.xlsx
@@ -1570,102 +1570,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1673,6 +1577,102 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2352,106 +2352,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="149"/>
+      <c r="AM1" s="149"/>
+      <c r="AN1" s="149"/>
+      <c r="AO1" s="149"/>
+      <c r="AP1" s="149"/>
+      <c r="AQ1" s="149"/>
+      <c r="AR1" s="149"/>
+      <c r="AS1" s="149"/>
+      <c r="AT1" s="149"/>
     </row>
     <row r="2" spans="1:56" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="145"/>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="145"/>
-      <c r="AJ2" s="145"/>
-      <c r="AK2" s="145"/>
-      <c r="AL2" s="145"/>
-      <c r="AM2" s="145"/>
-      <c r="AN2" s="145"/>
-      <c r="AO2" s="145"/>
-      <c r="AP2" s="145"/>
-      <c r="AQ2" s="145"/>
-      <c r="AR2" s="145"/>
-      <c r="AS2" s="145"/>
-      <c r="AT2" s="145"/>
-    </row>
-    <row r="3" spans="1:56" s="146" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:56" s="144" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:56" s="147" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
+      <c r="AL2" s="149"/>
+      <c r="AM2" s="149"/>
+      <c r="AN2" s="149"/>
+      <c r="AO2" s="149"/>
+      <c r="AP2" s="149"/>
+      <c r="AQ2" s="149"/>
+      <c r="AR2" s="149"/>
+      <c r="AS2" s="149"/>
+      <c r="AT2" s="149"/>
+    </row>
+    <row r="3" spans="1:56" s="150" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:56" s="148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:56" s="151" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:56" s="18" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
@@ -2756,10 +2756,10 @@
         <v>#REF!</v>
       </c>
       <c r="AU7" s="31"/>
-      <c r="AV7" s="148" t="s">
+      <c r="AV7" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="AW7" s="149"/>
+      <c r="AW7" s="153"/>
       <c r="AX7" s="32"/>
       <c r="AY7" s="32"/>
       <c r="AZ7" s="32"/>
@@ -6270,11 +6270,11 @@
       <c r="BD27" s="32"/>
     </row>
     <row r="28" spans="1:56" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="150" t="s">
+      <c r="A28" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
       <c r="D28" s="70" t="e">
         <f t="shared" ref="D28:K28" si="13">SUM(D7:D27)</f>
         <v>#REF!</v>
@@ -6451,9 +6451,9 @@
       <c r="AV28" s="72"/>
     </row>
     <row r="29" spans="1:56" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="144"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
+      <c r="A29" s="148"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="148"/>
       <c r="D29" s="74"/>
       <c r="E29" s="74"/>
       <c r="F29" s="74"/>
@@ -7740,70 +7740,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
     </row>
     <row r="3" spans="1:25" s="97" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="167"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="159"/>
       <c r="T3" s="98"/>
       <c r="U3" s="99"/>
       <c r="V3" s="99"/>
@@ -7812,55 +7812,55 @@
       <c r="Y3" s="100"/>
     </row>
     <row r="4" spans="1:25" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="155" t="s">
+      <c r="F4" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="155" t="s">
+      <c r="G4" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="155" t="s">
+      <c r="H4" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="155" t="s">
+      <c r="J4" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="157" t="s">
+      <c r="K4" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="159" t="s">
+      <c r="L4" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="161" t="s">
+      <c r="M4" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="172" t="s">
+      <c r="N4" s="166" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="174" t="s">
+      <c r="O4" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="151" t="s">
+      <c r="P4" s="170" t="s">
         <v>93</v>
       </c>
-      <c r="Q4" s="153" t="s">
+      <c r="Q4" s="172" t="s">
         <v>94</v>
       </c>
       <c r="R4" s="101" t="s">
@@ -7873,23 +7873,23 @@
       <c r="X4" s="99"/>
     </row>
     <row r="5" spans="1:25" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="169"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="154"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="173"/>
       <c r="R5" s="103" t="s">
         <v>95</v>
       </c>
@@ -10862,6 +10862,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
@@ -10878,10 +10882,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10892,7 +10892,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10910,7 +10910,7 @@
       <c r="B1" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="178" t="s">
+      <c r="C1" s="146" t="s">
         <v>125</v>
       </c>
       <c r="D1" s="142" t="s">
@@ -10927,13 +10927,13 @@
       <c r="B2" s="143">
         <v>308640</v>
       </c>
-      <c r="C2" s="178">
+      <c r="C2" s="146">
         <v>2673</v>
       </c>
       <c r="D2" s="142">
         <v>2460</v>
       </c>
-      <c r="E2" s="179">
+      <c r="E2" s="147">
         <f>D2/26</f>
         <v>94.615384615384613</v>
       </c>
@@ -10945,14 +10945,14 @@
       <c r="B3" s="143">
         <v>193141</v>
       </c>
-      <c r="C3" s="178">
+      <c r="C3" s="146">
         <v>2590</v>
       </c>
       <c r="D3" s="142">
         <v>1830</v>
       </c>
-      <c r="E3" s="179">
-        <f t="shared" ref="E3:E23" si="0">D3/26</f>
+      <c r="E3" s="147">
+        <f t="shared" ref="E3:E22" si="0">D3/26</f>
         <v>70.384615384615387</v>
       </c>
     </row>
@@ -10963,13 +10963,13 @@
       <c r="B4" s="143">
         <v>397400</v>
       </c>
-      <c r="C4" s="178">
+      <c r="C4" s="146">
         <v>3176</v>
       </c>
       <c r="D4" s="142">
         <v>3300</v>
       </c>
-      <c r="E4" s="179">
+      <c r="E4" s="147">
         <f t="shared" si="0"/>
         <v>126.92307692307692</v>
       </c>
@@ -10981,13 +10981,13 @@
       <c r="B5" s="143">
         <v>154786</v>
       </c>
-      <c r="C5" s="178">
+      <c r="C5" s="146">
         <v>1028</v>
       </c>
       <c r="D5" s="142">
         <v>770</v>
       </c>
-      <c r="E5" s="179">
+      <c r="E5" s="147">
         <f t="shared" si="0"/>
         <v>29.615384615384617</v>
       </c>
@@ -10999,13 +10999,13 @@
       <c r="B6" s="143">
         <v>161196</v>
       </c>
-      <c r="C6" s="178">
+      <c r="C6" s="146">
         <v>1629</v>
       </c>
       <c r="D6" s="142">
         <v>1050</v>
       </c>
-      <c r="E6" s="179">
+      <c r="E6" s="147">
         <f t="shared" si="0"/>
         <v>40.384615384615387</v>
       </c>
@@ -11017,13 +11017,13 @@
       <c r="B7" s="143">
         <v>169809</v>
       </c>
-      <c r="C7" s="178">
+      <c r="C7" s="146">
         <v>1400</v>
       </c>
       <c r="D7" s="142">
         <v>770</v>
       </c>
-      <c r="E7" s="179">
+      <c r="E7" s="147">
         <f t="shared" si="0"/>
         <v>29.615384615384617</v>
       </c>
@@ -11035,13 +11035,13 @@
       <c r="B8" s="143">
         <v>151463</v>
       </c>
-      <c r="C8" s="178">
+      <c r="C8" s="146">
         <v>1260</v>
       </c>
       <c r="D8" s="142">
         <v>250</v>
       </c>
-      <c r="E8" s="179">
+      <c r="E8" s="147">
         <f t="shared" si="0"/>
         <v>9.615384615384615</v>
       </c>
@@ -11053,13 +11053,13 @@
       <c r="B9" s="143">
         <v>444345</v>
       </c>
-      <c r="C9" s="178">
+      <c r="C9" s="146">
         <v>3824</v>
       </c>
       <c r="D9" s="142">
         <v>3300</v>
       </c>
-      <c r="E9" s="179">
+      <c r="E9" s="147">
         <f t="shared" si="0"/>
         <v>126.92307692307692</v>
       </c>
@@ -11071,13 +11071,13 @@
       <c r="B10" s="143">
         <v>442646</v>
       </c>
-      <c r="C10" s="178">
+      <c r="C10" s="146">
         <v>3529</v>
       </c>
       <c r="D10" s="142">
         <v>3300</v>
       </c>
-      <c r="E10" s="179">
+      <c r="E10" s="147">
         <f t="shared" si="0"/>
         <v>126.92307692307692</v>
       </c>
@@ -11089,13 +11089,13 @@
       <c r="B11" s="143">
         <v>450547</v>
       </c>
-      <c r="C11" s="178">
+      <c r="C11" s="146">
         <v>3725</v>
       </c>
       <c r="D11" s="142">
         <v>2800</v>
       </c>
-      <c r="E11" s="179">
+      <c r="E11" s="147">
         <f t="shared" si="0"/>
         <v>107.69230769230769</v>
       </c>
@@ -11107,13 +11107,13 @@
       <c r="B12" s="143">
         <v>293573</v>
       </c>
-      <c r="C12" s="178">
+      <c r="C12" s="146">
         <v>2750</v>
       </c>
       <c r="D12" s="142">
         <v>2460</v>
       </c>
-      <c r="E12" s="179">
+      <c r="E12" s="147">
         <f t="shared" si="0"/>
         <v>94.615384615384613</v>
       </c>
@@ -11125,13 +11125,13 @@
       <c r="B13" s="143">
         <v>259943</v>
       </c>
-      <c r="C13" s="178">
+      <c r="C13" s="146">
         <v>3150</v>
       </c>
       <c r="D13" s="142">
         <v>3250</v>
       </c>
-      <c r="E13" s="179">
+      <c r="E13" s="147">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
@@ -11143,13 +11143,13 @@
       <c r="B14" s="143">
         <v>315622</v>
       </c>
-      <c r="C14" s="178">
+      <c r="C14" s="146">
         <v>5192</v>
       </c>
       <c r="D14" s="142">
         <v>2070</v>
       </c>
-      <c r="E14" s="179">
+      <c r="E14" s="147">
         <f t="shared" si="0"/>
         <v>79.615384615384613</v>
       </c>
@@ -11161,13 +11161,13 @@
       <c r="B15" s="143">
         <v>176916</v>
       </c>
-      <c r="C15" s="178">
+      <c r="C15" s="146">
         <v>2441</v>
       </c>
       <c r="D15" s="142">
         <v>3120</v>
       </c>
-      <c r="E15" s="179">
+      <c r="E15" s="147">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -11179,13 +11179,13 @@
       <c r="B16" s="143">
         <v>145274</v>
       </c>
-      <c r="C16" s="178">
+      <c r="C16" s="146">
         <v>1586</v>
       </c>
       <c r="D16" s="142">
         <v>520</v>
       </c>
-      <c r="E16" s="179">
+      <c r="E16" s="147">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -11197,13 +11197,13 @@
       <c r="B17" s="143">
         <v>452079</v>
       </c>
-      <c r="C17" s="178">
+      <c r="C17" s="146">
         <v>4191</v>
       </c>
       <c r="D17" s="142">
         <v>3250</v>
       </c>
-      <c r="E17" s="179">
+      <c r="E17" s="147">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
@@ -11215,13 +11215,13 @@
       <c r="B18" s="143">
         <v>208276</v>
       </c>
-      <c r="C18" s="178">
+      <c r="C18" s="146">
         <v>2060</v>
       </c>
       <c r="D18" s="142">
         <v>1700</v>
       </c>
-      <c r="E18" s="179">
+      <c r="E18" s="147">
         <f t="shared" si="0"/>
         <v>65.384615384615387</v>
       </c>
@@ -11233,13 +11233,13 @@
       <c r="B19" s="143">
         <v>477036</v>
       </c>
-      <c r="C19" s="178">
+      <c r="C19" s="146">
         <v>3822</v>
       </c>
       <c r="D19" s="142">
         <v>3120</v>
       </c>
-      <c r="E19" s="179">
+      <c r="E19" s="147">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -11251,13 +11251,13 @@
       <c r="B20" s="143">
         <v>237886</v>
       </c>
-      <c r="C20" s="178">
+      <c r="C20" s="146">
         <v>2238</v>
       </c>
       <c r="D20" s="142">
         <v>1830</v>
       </c>
-      <c r="E20" s="179">
+      <c r="E20" s="147">
         <f t="shared" si="0"/>
         <v>70.384615384615387</v>
       </c>
@@ -11269,13 +11269,13 @@
       <c r="B21" s="143">
         <v>246261</v>
       </c>
-      <c r="C21" s="178">
+      <c r="C21" s="146">
         <v>2452</v>
       </c>
       <c r="D21" s="142">
         <v>2070</v>
       </c>
-      <c r="E21" s="179">
+      <c r="E21" s="147">
         <f t="shared" si="0"/>
         <v>79.615384615384613</v>
       </c>
@@ -11287,13 +11287,13 @@
       <c r="B22" s="143">
         <v>202909</v>
       </c>
-      <c r="C22" s="178">
+      <c r="C22" s="146">
         <v>2567</v>
       </c>
       <c r="D22" s="142">
         <v>2600</v>
       </c>
-      <c r="E22" s="179">
+      <c r="E22" s="147">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -11312,50 +11312,50 @@
         <f>SUM(D2:D22)</f>
         <v>45820</v>
       </c>
-      <c r="E23" s="177">
+      <c r="E23" s="145">
         <f>SUM(E2:E22)</f>
         <v>1762.3076923076924</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="176"/>
+      <c r="A25" s="144"/>
       <c r="B25" s="99"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="176"/>
+      <c r="A26" s="144"/>
       <c r="B26" s="99"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="176"/>
-      <c r="B27" s="176"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="144"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="176"/>
-      <c r="B28" s="176"/>
+      <c r="A28" s="144"/>
+      <c r="B28" s="144"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="176"/>
-      <c r="B29" s="176"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="144"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="176"/>
-      <c r="B30" s="176"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="144"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="176"/>
-      <c r="B31" s="176"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="144"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="176"/>
-      <c r="B32" s="176"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="144"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="176"/>
-      <c r="B33" s="176"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="144"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="176"/>
-      <c r="B34" s="176"/>
+      <c r="A34" s="144"/>
+      <c r="B34" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
